--- a/productos_sony_lentes_maestra.xlsx
+++ b/productos_sony_lentes_maestra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Precios" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="41" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="232">
   <si>
     <t>Producto</t>
   </si>
@@ -586,9 +586,6 @@
     <t>Tamron AF 20-40mm f/2.8 Di III VXD para Sony E</t>
   </si>
   <si>
-    <t>Viltrox 75mm f/1.2 AF, APS-C para Sony E</t>
-  </si>
-  <si>
     <t>Viltrox AF 85mm f/1.8 Mark II FE, Full Frame, para Sony E</t>
   </si>
   <si>
@@ -601,9 +598,6 @@
     <t>Sigma 14-24mm f/2.8 DG DN Art para Sony E</t>
   </si>
   <si>
-    <t>Viltrox AF 28mm f/1,8 FE, Full Frame, para Sony</t>
-  </si>
-  <si>
     <t>Gran Angular - Angular</t>
   </si>
   <si>
@@ -707,6 +701,45 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Viltrox AF 28mm f/1.8 FE, Full Frame, para Sony E</t>
+  </si>
+  <si>
+    <t>Viltrox AF 75mm f/1.2 E, APS-C para Sony E</t>
+  </si>
+  <si>
+    <t>Ttartisan</t>
+  </si>
+  <si>
+    <t>Ttartisan 75mm f/2,0 FE, Full Frame</t>
+  </si>
+  <si>
+    <t>62 mm</t>
+  </si>
+  <si>
+    <t>Distancia Minima de Enfoque</t>
+  </si>
+  <si>
+    <t>75 cm</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>340 gr</t>
+  </si>
+  <si>
+    <t>Ttartisan 27mm f/2,8 E, APS-C</t>
+  </si>
+  <si>
+    <t>TTArtisan AF 56mm F1.8</t>
+  </si>
+  <si>
+    <t>TTArtisan AF 35mm F1.8 II</t>
+  </si>
+  <si>
+    <t>Retratos, Foto de Calle, Foto de producto</t>
   </si>
 </sst>
 </file>
@@ -716,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +782,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -945,11 +986,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -971,8 +1013,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -991,7 +1031,6 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1002,21 +1041,54 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1040,19 +1112,42 @@
           <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color theme="0"/>
-        </right>
+        </left>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1077,44 +1172,7 @@
           <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
         </left>
@@ -1127,8 +1185,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1366,6 +1422,43 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="0"/>
@@ -1437,6 +1530,16 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1622,8 +1725,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Marca"/>
@@ -1640,7 +1743,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1694,8 +1797,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Sensor"/>
@@ -1712,7 +1815,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1757,7 +1860,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ortega Mazzini, David" refreshedDate="45653.404370138887" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="125">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ortega Mazzini, David" refreshedDate="45653.416242245374" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="125">
   <cacheSource type="worksheet">
     <worksheetSource name="Datos"/>
   </cacheSource>
@@ -1812,7 +1915,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Nombre" numFmtId="0">
-      <sharedItems count="125">
+      <sharedItems count="129">
         <s v="FE 85 mm F1.4 GM II"/>
         <s v="Lente E PZ 16-50 mm F3.5-5.6 OSS II"/>
         <s v="FE 16-25 mm F2.8 G"/>
@@ -1932,12 +2035,16 @@
         <s v="Tamron AF 150-500mm f/5-6.7 Di III VC VXD para Sony E"/>
         <s v="Tamron AF 50-400mm f/4.5-6.3 Di III VC VXD para Sony E"/>
         <s v="Tamron AF 20-40mm f/2.8 Di III VXD para Sony E"/>
-        <s v="Viltrox 75mm f/1.2 AF, APS-C para Sony E"/>
+        <s v="Viltrox AF 75mm f/1.2 E, APS-C para Sony E"/>
         <s v="Viltrox AF 85mm f/1.8 Mark II FE, Full Frame, para Sony E"/>
         <s v="Viltrox AF 16mm f/1.8 FE, Full Frame, para Sony E"/>
         <s v="Sigma 50mm f/1.4 DG DN Art para Sony E”"/>
         <s v="Sigma 14-24mm f/2.8 DG DN Art para Sony E"/>
-        <s v="Viltrox AF 28mm f/1,8 FE, Full Frame, para Sony"/>
+        <s v="Viltrox AF 28mm f/1.8 FE, Full Frame, para Sony E"/>
+        <s v="Viltrox 75mm f/1.2 AF, APS-C para Sony E" u="1"/>
+        <s v="Viltrox AF 75mm f/1.2, APS-C para Sony E" u="1"/>
+        <s v="Viltrox AF 28mm f/1,8 FE, Full Frame, para Sony" u="1"/>
+        <s v="Viltrox AF 28mm f/1.8 FE, Full Frame, para Sony" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Precio" numFmtId="44">
@@ -3339,8 +3446,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
-  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="4">
@@ -3388,12 +3495,12 @@
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="126">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="130">
         <item x="60"/>
         <item x="20"/>
         <item x="19"/>
@@ -3499,12 +3606,14 @@
         <item x="58"/>
         <item x="41"/>
         <item x="43"/>
-        <item x="119"/>
+        <item m="1" x="125"/>
         <item x="121"/>
         <item x="72"/>
         <item x="74"/>
         <item x="75"/>
         <item x="71"/>
+        <item m="1" x="127"/>
+        <item m="1" x="128"/>
         <item x="124"/>
         <item x="66"/>
         <item x="77"/>
@@ -3512,6 +3621,8 @@
         <item x="65"/>
         <item x="76"/>
         <item x="78"/>
+        <item x="119"/>
+        <item m="1" x="126"/>
         <item x="120"/>
         <item x="69"/>
         <item x="113"/>
@@ -3529,48 +3640,21 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="108"/>
-    </i>
-    <i>
-      <x v="109"/>
     </i>
     <i>
       <x v="110"/>
     </i>
     <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
       <x v="115"/>
     </i>
     <i>
-      <x v="116"/>
+      <x v="119"/>
     </i>
     <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="118"/>
+      <x v="120"/>
     </i>
     <i t="grand">
       <x/>
@@ -3673,7 +3757,7 @@
     <tabular pivotCacheId="952029092">
       <items count="2">
         <i x="1" s="1"/>
-        <i x="0" s="1"/>
+        <i x="0"/>
       </items>
     </tabular>
   </data>
@@ -3690,11 +3774,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A1:I126" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:I126"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Tipo" dataDxfId="9"/>
-    <tableColumn id="9" name="Marca" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A1:K130" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:K130"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Tipo" dataDxfId="10"/>
+    <tableColumn id="9" name="Marca" dataDxfId="9"/>
     <tableColumn id="2" name="Categoria" dataDxfId="8"/>
     <tableColumn id="3" name="Uso" dataDxfId="7"/>
     <tableColumn id="4" name="Sensor" dataDxfId="6"/>
@@ -3702,6 +3786,8 @@
     <tableColumn id="6" name="Precio" dataDxfId="4" dataCellStyle="Moneda"/>
     <tableColumn id="7" name="Calificacion" dataDxfId="3"/>
     <tableColumn id="8" name="Tamaño de Filtro" dataDxfId="2"/>
+    <tableColumn id="10" name="Distancia Minima de Enfoque" dataDxfId="1"/>
+    <tableColumn id="11" name="Peso" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4009,14 +4095,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5157,7 +5243,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G64">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Mismo Precio"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5168,15 +5254,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B18"/>
+  <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5185,127 +5271,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="26">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="26">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="26">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="26">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="B8" s="26">
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="29">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="29">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="29">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="29">
-        <v>389</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="29">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="29">
-        <v>378.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="29">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="29">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="29">
-        <v>378.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="29">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="29">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="29">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="29">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A9" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="29">
-        <v>4986.9799999999996</v>
+      <c r="B9" s="26">
+        <v>2042</v>
       </c>
     </row>
   </sheetData>
@@ -5324,10 +5338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D114" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5338,43 +5352,50 @@
     <col min="6" max="6" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>69</v>
@@ -5385,23 +5406,25 @@
       <c r="E2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="17">
         <v>2058.9899999999998</v>
       </c>
       <c r="H2" s="10">
         <v>5</v>
       </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>75</v>
@@ -5412,23 +5435,25 @@
       <c r="E3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>339</v>
       </c>
       <c r="H3" s="12">
         <v>2</v>
       </c>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="30"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>77</v>
@@ -5439,23 +5464,25 @@
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>1368.99</v>
       </c>
       <c r="H4" s="10">
         <v>4</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>78</v>
@@ -5466,23 +5493,25 @@
       <c r="E5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <v>1259</v>
       </c>
       <c r="H5" s="12">
         <v>4</v>
       </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="30"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>79</v>
@@ -5493,23 +5522,25 @@
       <c r="E6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>6888.99</v>
       </c>
       <c r="H6" s="10">
         <v>5</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="29"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>77</v>
@@ -5520,23 +5551,25 @@
       <c r="E7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>2639</v>
       </c>
       <c r="H7" s="12">
         <v>5</v>
       </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="30"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>87</v>
@@ -5547,23 +5580,25 @@
       <c r="E8" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>1949</v>
       </c>
       <c r="H8" s="10">
         <v>5</v>
       </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="29"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>69</v>
@@ -5574,23 +5609,25 @@
       <c r="E9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>1368.99</v>
       </c>
       <c r="H9" s="12">
         <v>5</v>
       </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="30"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>78</v>
@@ -5601,23 +5638,25 @@
       <c r="E10" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>1138.99</v>
       </c>
       <c r="H10" s="10">
         <v>4</v>
       </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="29"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>88</v>
@@ -5628,23 +5667,25 @@
       <c r="E11" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>739</v>
       </c>
       <c r="H11" s="12">
         <v>4</v>
       </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="30"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>78</v>
@@ -5655,23 +5696,25 @@
       <c r="E12" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>2639</v>
       </c>
       <c r="H12" s="10">
         <v>5</v>
       </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="29"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>87</v>
@@ -5682,23 +5725,25 @@
       <c r="E13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>3208.99</v>
       </c>
       <c r="H13" s="12">
         <v>5</v>
       </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="30"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>89</v>
@@ -5709,23 +5754,25 @@
       <c r="E14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>1719</v>
       </c>
       <c r="H14" s="10">
         <v>5</v>
       </c>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>69</v>
@@ -5736,23 +5783,25 @@
       <c r="E15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>2179</v>
       </c>
       <c r="H15" s="12">
         <v>5</v>
       </c>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="30"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>69</v>
@@ -5763,23 +5812,25 @@
       <c r="E16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>1489</v>
       </c>
       <c r="H16" s="10">
         <v>3</v>
       </c>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="29"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>87</v>
@@ -5790,23 +5841,25 @@
       <c r="E17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>2748.99</v>
       </c>
       <c r="H17" s="12">
         <v>4</v>
       </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="30"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>77</v>
@@ -5817,23 +5870,25 @@
       <c r="E18" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="17">
         <v>2058.9899999999998</v>
       </c>
       <c r="H18" s="10">
         <v>4</v>
       </c>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="29"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>78</v>
@@ -5844,23 +5899,25 @@
       <c r="E19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="19">
         <v>1828.99</v>
       </c>
       <c r="H19" s="12">
         <v>4</v>
       </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="30"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>69</v>
@@ -5871,23 +5928,25 @@
       <c r="E20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <v>1489</v>
       </c>
       <c r="H20" s="10">
         <v>4</v>
       </c>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="29"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>90</v>
@@ -5898,23 +5957,25 @@
       <c r="E21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="19">
         <v>739</v>
       </c>
       <c r="H21" s="12">
         <v>4</v>
       </c>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="30"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>77</v>
@@ -5925,23 +5986,25 @@
       <c r="E22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>569</v>
       </c>
       <c r="H22" s="10">
         <v>4</v>
       </c>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="29"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>77</v>
@@ -5952,23 +6015,25 @@
       <c r="E23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="19">
         <v>1419</v>
       </c>
       <c r="H23" s="12">
         <v>4</v>
       </c>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="30"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>87</v>
@@ -5979,23 +6044,25 @@
       <c r="E24" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <v>2179</v>
       </c>
       <c r="H24" s="10">
         <v>5</v>
       </c>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="29"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>77</v>
@@ -6006,23 +6073,25 @@
       <c r="E25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="19">
         <v>908.99</v>
       </c>
       <c r="H25" s="12">
         <v>5</v>
       </c>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="30"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>79</v>
@@ -6033,23 +6102,25 @@
       <c r="E26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="17">
         <v>2179</v>
       </c>
       <c r="H26" s="10">
         <v>5</v>
       </c>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="29"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>81</v>
@@ -6060,23 +6131,25 @@
       <c r="E27" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="19">
         <v>1138.99</v>
       </c>
       <c r="H27" s="12">
         <v>4</v>
       </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="30"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>92</v>
@@ -6087,23 +6160,25 @@
       <c r="E28" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="17">
         <v>629</v>
       </c>
       <c r="H28" s="10">
         <v>3</v>
       </c>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="29"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>92</v>
@@ -6114,23 +6189,25 @@
       <c r="E29" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="19">
         <v>1089</v>
       </c>
       <c r="H29" s="12">
         <v>3</v>
       </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="30"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>90</v>
@@ -6141,23 +6218,25 @@
       <c r="E30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="17">
         <v>629</v>
       </c>
       <c r="H30" s="10">
         <v>4</v>
       </c>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="29"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>69</v>
@@ -6168,23 +6247,25 @@
       <c r="E31" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="19">
         <v>629</v>
       </c>
       <c r="H31" s="12">
         <v>4</v>
       </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="30"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>69</v>
@@ -6195,23 +6276,25 @@
       <c r="E32" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="17">
         <v>629</v>
       </c>
       <c r="H32" s="10">
         <v>4</v>
       </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="29"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>87</v>
@@ -6222,23 +6305,25 @@
       <c r="E33" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="19">
         <v>629</v>
       </c>
       <c r="H33" s="12">
         <v>4</v>
       </c>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="30"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>87</v>
@@ -6249,23 +6334,25 @@
       <c r="E34" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <v>629</v>
       </c>
       <c r="H34" s="10">
         <v>4</v>
       </c>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="29"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>91</v>
@@ -6276,23 +6363,25 @@
       <c r="E35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="19">
         <v>1029</v>
       </c>
       <c r="H35" s="12">
         <v>3.5</v>
       </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="30"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>69</v>
@@ -6303,23 +6392,25 @@
       <c r="E36" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="17">
         <v>739</v>
       </c>
       <c r="H36" s="10">
         <v>5</v>
       </c>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="29"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>92</v>
@@ -6330,23 +6421,25 @@
       <c r="E37" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="19">
         <v>1259</v>
       </c>
       <c r="H37" s="12">
         <v>4</v>
       </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="30"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>69</v>
@@ -6357,23 +6450,25 @@
       <c r="E38" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="17">
         <v>1029</v>
       </c>
       <c r="H38" s="10">
         <v>4</v>
       </c>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="29"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>69</v>
@@ -6384,23 +6479,25 @@
       <c r="E39" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="19">
         <v>629</v>
       </c>
       <c r="H39" s="12">
         <v>4</v>
       </c>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="30"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>89</v>
@@ -6411,23 +6508,25 @@
       <c r="E40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="17">
         <v>2029</v>
       </c>
       <c r="H40" s="10">
         <v>4</v>
       </c>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="29"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>92</v>
@@ -6438,23 +6537,25 @@
       <c r="E41" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="19">
         <v>739</v>
       </c>
       <c r="H41" s="12">
         <v>3.5</v>
       </c>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="30"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>90</v>
@@ -6465,23 +6566,25 @@
       <c r="E42" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="17">
         <v>908.99</v>
       </c>
       <c r="H42" s="10">
         <v>4</v>
       </c>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="29"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>77</v>
@@ -6492,23 +6595,25 @@
       <c r="E43" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="19">
         <v>1138.99</v>
       </c>
       <c r="H43" s="12">
         <v>3</v>
       </c>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="30"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>90</v>
@@ -6519,23 +6624,25 @@
       <c r="E44" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="17">
         <v>279</v>
       </c>
       <c r="H44" s="10">
         <v>2</v>
       </c>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="29"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>78</v>
@@ -6546,23 +6653,25 @@
       <c r="E45" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="19">
         <v>799</v>
       </c>
       <c r="H45" s="12">
         <v>3.5</v>
       </c>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="30"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>90</v>
@@ -6573,23 +6682,25 @@
       <c r="E46" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="17">
         <v>419</v>
       </c>
       <c r="H46" s="10">
         <v>2</v>
       </c>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="29"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>90</v>
@@ -6600,23 +6711,25 @@
       <c r="E47" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="19">
         <v>509</v>
       </c>
       <c r="H47" s="12">
         <v>4</v>
       </c>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="30"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>69</v>
@@ -6627,23 +6740,25 @@
       <c r="E48" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="17">
         <v>339</v>
       </c>
       <c r="H48" s="10">
         <v>4</v>
       </c>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="29"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>75</v>
@@ -6654,23 +6769,25 @@
       <c r="E49" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="19">
         <v>339</v>
       </c>
       <c r="H49" s="12">
         <v>3</v>
       </c>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="30"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>69</v>
@@ -6681,23 +6798,25 @@
       <c r="E50" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="17">
         <v>218.99</v>
       </c>
       <c r="H50" s="10">
         <v>3</v>
       </c>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="29"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>81</v>
@@ -6708,23 +6827,25 @@
       <c r="E51" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="19">
         <v>279</v>
       </c>
       <c r="H51" s="12">
         <v>3.5</v>
       </c>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="30"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>69</v>
@@ -6735,23 +6856,25 @@
       <c r="E52" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="17">
         <v>479</v>
       </c>
       <c r="H52" s="10">
         <v>3.5</v>
       </c>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="29"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>75</v>
@@ -6762,23 +6885,25 @@
       <c r="E53" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="19">
         <v>448.99</v>
       </c>
       <c r="H53" s="12">
         <v>3</v>
       </c>
-      <c r="I53" s="14"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="30"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>75</v>
@@ -6789,23 +6914,25 @@
       <c r="E54" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="17">
         <v>339</v>
       </c>
       <c r="H54" s="10">
         <v>3</v>
       </c>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="29"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>90</v>
@@ -6816,23 +6943,25 @@
       <c r="E55" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="19">
         <v>1489</v>
       </c>
       <c r="H55" s="12">
         <v>5</v>
       </c>
-      <c r="I55" s="14"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="30"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>77</v>
@@ -6843,23 +6972,25 @@
       <c r="E56" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="17">
         <v>3559</v>
       </c>
       <c r="H56" s="10">
         <v>5</v>
       </c>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="29"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>87</v>
@@ -6870,23 +7001,25 @@
       <c r="E57" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="19">
         <v>2409</v>
       </c>
       <c r="H57" s="12">
         <v>5</v>
       </c>
-      <c r="I57" s="14"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="30"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>75</v>
@@ -6897,23 +7030,25 @@
       <c r="E58" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="17">
         <v>569</v>
       </c>
       <c r="H58" s="10">
         <v>3</v>
       </c>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="29"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>78</v>
@@ -6924,23 +7059,25 @@
       <c r="E59" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="19">
         <v>1489</v>
       </c>
       <c r="H59" s="12">
         <v>5</v>
       </c>
-      <c r="I59" s="14"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="30"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>78</v>
@@ -6951,23 +7088,25 @@
       <c r="E60" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="17">
         <v>799</v>
       </c>
       <c r="H60" s="10">
         <v>4</v>
       </c>
-      <c r="I60" s="13"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="29"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>87</v>
@@ -6978,26 +7117,28 @@
       <c r="E61" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="19">
         <v>1719</v>
       </c>
       <c r="H61" s="12">
         <v>5</v>
       </c>
-      <c r="I61" s="14"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="30"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>101</v>
@@ -7005,23 +7146,25 @@
       <c r="E62" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="17">
         <v>999.01</v>
       </c>
       <c r="H62" s="10">
         <v>3.5</v>
       </c>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="29"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>81</v>
@@ -7032,23 +7175,25 @@
       <c r="E63" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="19">
         <v>629</v>
       </c>
       <c r="H63" s="12">
         <v>3</v>
       </c>
-      <c r="I63" s="14"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="30"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>87</v>
@@ -7062,20 +7207,22 @@
       <c r="F64" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="20">
         <v>1099</v>
       </c>
       <c r="H64" s="10">
         <v>4</v>
       </c>
-      <c r="I64" s="13"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="29"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>77</v>
@@ -7089,23 +7236,25 @@
       <c r="F65" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="21">
         <v>1399</v>
       </c>
       <c r="H65" s="12">
         <v>5</v>
       </c>
-      <c r="I65" s="14"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="30"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>110</v>
@@ -7116,23 +7265,25 @@
       <c r="F66" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="20">
         <v>919</v>
       </c>
       <c r="H66" s="10">
         <v>5</v>
       </c>
-      <c r="I66" s="13"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="29"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>112</v>
@@ -7143,20 +7294,22 @@
       <c r="F67" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="21">
         <v>169</v>
       </c>
       <c r="H67" s="12">
         <v>4</v>
       </c>
-      <c r="I67" s="14"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="30"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>90</v>
@@ -7170,23 +7323,25 @@
       <c r="F68" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="20">
         <v>99</v>
       </c>
       <c r="H68" s="10">
         <v>4</v>
       </c>
-      <c r="I68" s="13"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I68" s="29"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>111</v>
@@ -7197,20 +7352,22 @@
       <c r="F69" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="21">
         <v>969</v>
       </c>
       <c r="H69" s="12">
         <v>3</v>
       </c>
-      <c r="I69" s="14"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="30"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>78</v>
@@ -7224,20 +7381,22 @@
       <c r="F70" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="20">
         <v>1289</v>
       </c>
       <c r="H70" s="10">
         <v>5</v>
       </c>
-      <c r="I70" s="13"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="29"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>90</v>
@@ -7251,23 +7410,25 @@
       <c r="F71" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="21">
         <v>349</v>
       </c>
       <c r="H71" s="12">
         <v>4</v>
       </c>
-      <c r="I71" s="14"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="30"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>110</v>
@@ -7278,20 +7439,22 @@
       <c r="F72" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="20">
         <v>698</v>
       </c>
       <c r="H72" s="10">
         <v>4</v>
       </c>
-      <c r="I72" s="13"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="29"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>69</v>
@@ -7305,26 +7468,28 @@
       <c r="F73" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="21">
         <v>579</v>
       </c>
       <c r="H73" s="12">
         <v>5</v>
       </c>
-      <c r="I73" s="14"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="30"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>114</v>
@@ -7332,26 +7497,28 @@
       <c r="F74" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="20">
         <v>176</v>
       </c>
       <c r="H74" s="10">
         <v>4</v>
       </c>
-      <c r="I74" s="13"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="29"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>114</v>
@@ -7359,26 +7526,28 @@
       <c r="F75" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="21">
         <v>378.99</v>
       </c>
       <c r="H75" s="12">
         <v>4</v>
       </c>
-      <c r="I75" s="14"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="30"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>113</v>
@@ -7386,26 +7555,28 @@
       <c r="F76" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="20">
         <v>299</v>
       </c>
       <c r="H76" s="10">
         <v>3</v>
       </c>
-      <c r="I76" s="13"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I76" s="29"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>114</v>
@@ -7413,20 +7584,22 @@
       <c r="F77" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="21">
         <v>389</v>
       </c>
       <c r="H77" s="12">
         <v>4</v>
       </c>
-      <c r="I77" s="14"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="30"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>69</v>
@@ -7440,20 +7613,22 @@
       <c r="F78" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G78" s="20">
         <v>375</v>
       </c>
       <c r="H78" s="10">
         <v>4</v>
       </c>
-      <c r="I78" s="13"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="29"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>69</v>
@@ -7467,20 +7642,22 @@
       <c r="F79" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G79" s="23">
+      <c r="G79" s="21">
         <v>285</v>
       </c>
       <c r="H79" s="12">
         <v>3.5</v>
       </c>
-      <c r="I79" s="14"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="30"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>69</v>
@@ -7494,26 +7671,28 @@
       <c r="F80" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="20">
         <v>299</v>
       </c>
       <c r="H80" s="10">
         <v>3.5</v>
       </c>
-      <c r="I80" s="13"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="29"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>114</v>
@@ -7521,20 +7700,22 @@
       <c r="F81" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G81" s="21">
         <v>769.01</v>
       </c>
       <c r="H81" s="12">
         <v>4</v>
       </c>
-      <c r="I81" s="14"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="30"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>69</v>
@@ -7548,20 +7729,22 @@
       <c r="F82" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="20">
         <v>998.99</v>
       </c>
       <c r="H82" s="10">
         <v>5</v>
       </c>
-      <c r="I82" s="13"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="29"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>69</v>
@@ -7575,26 +7758,28 @@
       <c r="F83" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="21">
         <v>375</v>
       </c>
       <c r="H83" s="12">
         <v>5</v>
       </c>
-      <c r="I83" s="14"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="30"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>113</v>
@@ -7602,20 +7787,22 @@
       <c r="F84" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="20">
         <v>475</v>
       </c>
       <c r="H84" s="10">
         <v>4</v>
       </c>
-      <c r="I84" s="13"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I84" s="29"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -7625,20 +7812,22 @@
       <c r="F85" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G85" s="23">
+      <c r="G85" s="21">
         <v>279</v>
       </c>
       <c r="H85" s="12">
         <v>4</v>
       </c>
-      <c r="I85" s="14"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I85" s="30"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>69</v>
@@ -7652,20 +7841,22 @@
       <c r="F86" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="20">
         <v>480</v>
       </c>
       <c r="H86" s="10">
         <v>3.5</v>
       </c>
-      <c r="I86" s="13"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I86" s="29"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>69</v>
@@ -7679,26 +7870,28 @@
       <c r="F87" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G87" s="23">
+      <c r="G87" s="21">
         <v>399</v>
       </c>
       <c r="H87" s="12">
         <v>3.5</v>
       </c>
-      <c r="I87" s="14"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="30"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>113</v>
@@ -7706,20 +7899,22 @@
       <c r="F88" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="20">
         <v>369</v>
       </c>
       <c r="H88" s="10">
         <v>3.5</v>
       </c>
-      <c r="I88" s="13"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I88" s="29"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>69</v>
@@ -7733,20 +7928,22 @@
       <c r="F89" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G89" s="23">
+      <c r="G89" s="21">
         <v>375</v>
       </c>
       <c r="H89" s="12">
         <v>4</v>
       </c>
-      <c r="I89" s="14"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="30"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>69</v>
@@ -7760,20 +7957,22 @@
       <c r="F90" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="20">
         <v>419</v>
       </c>
       <c r="H90" s="10">
         <v>4</v>
       </c>
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I90" s="29"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>69</v>
@@ -7787,20 +7986,22 @@
       <c r="F91" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G91" s="23">
+      <c r="G91" s="21">
         <v>163.25</v>
       </c>
       <c r="H91" s="12">
         <v>4</v>
       </c>
-      <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I91" s="30"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>81</v>
@@ -7814,20 +8015,22 @@
       <c r="F92" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G92" s="20">
         <v>448.99</v>
       </c>
       <c r="H92" s="10">
         <v>4</v>
       </c>
-      <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I92" s="29"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>69</v>
@@ -7841,26 +8044,28 @@
       <c r="F93" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G93" s="23">
+      <c r="G93" s="21">
         <v>500</v>
       </c>
       <c r="H93" s="12">
         <v>5</v>
       </c>
-      <c r="I93" s="14"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I93" s="30"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>114</v>
@@ -7868,26 +8073,28 @@
       <c r="F94" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G94" s="22">
+      <c r="G94" s="20">
         <v>939</v>
       </c>
       <c r="H94" s="10">
         <v>5</v>
       </c>
-      <c r="I94" s="13"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I94" s="29"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>113</v>
@@ -7895,26 +8102,28 @@
       <c r="F95" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G95" s="23">
+      <c r="G95" s="21">
         <v>649</v>
       </c>
       <c r="H95" s="12">
         <v>5</v>
       </c>
-      <c r="I95" s="14"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I95" s="30"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>114</v>
@@ -7922,20 +8131,22 @@
       <c r="F96" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G96" s="22">
+      <c r="G96" s="20">
         <v>998.99</v>
       </c>
       <c r="H96" s="10">
         <v>5</v>
       </c>
-      <c r="I96" s="13"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I96" s="29"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>69</v>
@@ -7949,26 +8160,28 @@
       <c r="F97" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G97" s="23">
+      <c r="G97" s="21">
         <v>319</v>
       </c>
       <c r="H97" s="12">
         <v>5</v>
       </c>
-      <c r="I97" s="14"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I97" s="30"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>114</v>
@@ -7976,20 +8189,22 @@
       <c r="F98" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G98" s="22">
+      <c r="G98" s="20">
         <v>998.99</v>
       </c>
       <c r="H98" s="10">
         <v>5</v>
       </c>
-      <c r="I98" s="13"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I98" s="29"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>69</v>
@@ -8003,23 +8218,25 @@
       <c r="F99" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G99" s="23">
+      <c r="G99" s="21">
         <v>370</v>
       </c>
       <c r="H99" s="12">
         <v>4</v>
       </c>
-      <c r="I99" s="14"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I99" s="30"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>109</v>
@@ -8030,23 +8247,25 @@
       <c r="F100" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G100" s="22">
+      <c r="G100" s="20">
         <v>755</v>
       </c>
       <c r="H100" s="10">
         <v>4</v>
       </c>
-      <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I100" s="29"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>109</v>
@@ -8057,27 +8276,29 @@
       <c r="F101" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G101" s="23">
+      <c r="G101" s="21">
         <f>431</f>
         <v>431</v>
       </c>
       <c r="H101" s="12">
         <v>3.5</v>
       </c>
-      <c r="I101" s="14"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I101" s="30"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>114</v>
@@ -8085,26 +8306,28 @@
       <c r="F102" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G102" s="22">
+      <c r="G102" s="20">
         <v>949</v>
       </c>
       <c r="H102" s="10">
         <v>4</v>
       </c>
-      <c r="I102" s="13"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I102" s="29"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>114</v>
@@ -8112,26 +8335,28 @@
       <c r="F103" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G103" s="23">
+      <c r="G103" s="21">
         <v>1335</v>
       </c>
       <c r="H103" s="12">
         <v>4.55</v>
       </c>
-      <c r="I103" s="14"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I103" s="30"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>114</v>
@@ -8139,26 +8364,28 @@
       <c r="F104" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G104" s="22">
+      <c r="G104" s="20">
         <v>535</v>
       </c>
       <c r="H104" s="10">
         <v>3.5</v>
       </c>
-      <c r="I104" s="13"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I104" s="29"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>114</v>
@@ -8166,23 +8393,25 @@
       <c r="F105" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G105" s="23">
+      <c r="G105" s="21">
         <v>899</v>
       </c>
       <c r="H105" s="12">
         <v>4</v>
       </c>
-      <c r="I105" s="14"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I105" s="30"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>109</v>
@@ -8193,20 +8422,22 @@
       <c r="F106" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G106" s="22">
+      <c r="G106" s="20">
         <v>799</v>
       </c>
       <c r="H106" s="10">
         <v>3.5</v>
       </c>
-      <c r="I106" s="13"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I106" s="29"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>69</v>
@@ -8220,26 +8451,28 @@
       <c r="F107" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G107" s="23">
+      <c r="G107" s="21">
         <v>669</v>
       </c>
       <c r="H107" s="12">
         <v>4</v>
       </c>
-      <c r="I107" s="14"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="30"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>114</v>
@@ -8247,26 +8480,28 @@
       <c r="F108" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G108" s="22">
+      <c r="G108" s="20">
         <v>870</v>
       </c>
       <c r="H108" s="10">
         <v>4</v>
       </c>
-      <c r="I108" s="13"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="29"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>113</v>
@@ -8274,26 +8509,28 @@
       <c r="F109" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G109" s="23">
+      <c r="G109" s="21">
         <v>769.01</v>
       </c>
       <c r="H109" s="12">
         <v>4</v>
       </c>
-      <c r="I109" s="14"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I109" s="30"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>114</v>
@@ -8301,26 +8538,28 @@
       <c r="F110" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G110" s="22">
+      <c r="G110" s="20">
         <v>1999</v>
       </c>
       <c r="H110" s="10">
         <v>4.5</v>
       </c>
-      <c r="I110" s="13"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I110" s="29"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>113</v>
@@ -8328,26 +8567,28 @@
       <c r="F111" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G111" s="23">
+      <c r="G111" s="21">
         <v>750</v>
       </c>
       <c r="H111" s="12">
         <v>4</v>
       </c>
-      <c r="I111" s="14"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I111" s="30"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>114</v>
@@ -8355,26 +8596,28 @@
       <c r="F112" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G112" s="22">
+      <c r="G112" s="20">
         <v>279</v>
       </c>
       <c r="H112" s="10">
         <v>3.5</v>
       </c>
-      <c r="I112" s="13"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I112" s="29"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>114</v>
@@ -8382,26 +8625,28 @@
       <c r="F113" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G113" s="23">
+      <c r="G113" s="21">
         <v>229</v>
       </c>
       <c r="H113" s="12">
         <v>3.5</v>
       </c>
-      <c r="I113" s="14"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I113" s="30"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>114</v>
@@ -8409,26 +8654,28 @@
       <c r="F114" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G114" s="22">
+      <c r="G114" s="20">
         <v>229</v>
       </c>
       <c r="H114" s="10">
         <v>3.5</v>
       </c>
-      <c r="I114" s="13"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I114" s="29"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>113</v>
@@ -8436,26 +8683,28 @@
       <c r="F115" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G115" s="23">
+      <c r="G115" s="21">
         <v>287.99</v>
       </c>
       <c r="H115" s="12">
         <v>3.5</v>
       </c>
-      <c r="I115" s="14"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I115" s="30"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="32"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>113</v>
@@ -8463,26 +8712,28 @@
       <c r="F116" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G116" s="22">
+      <c r="G116" s="20">
         <v>299</v>
       </c>
       <c r="H116" s="10">
         <v>4</v>
       </c>
-      <c r="I116" s="13"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I116" s="29"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>113</v>
@@ -8490,26 +8741,28 @@
       <c r="F117" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G117" s="23">
+      <c r="G117" s="21">
         <v>599</v>
       </c>
       <c r="H117" s="12">
         <v>4</v>
       </c>
-      <c r="I117" s="14"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I117" s="30"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>114</v>
@@ -8517,26 +8770,28 @@
       <c r="F118" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G118" s="22">
+      <c r="G118" s="20">
         <v>1399</v>
       </c>
       <c r="H118" s="10">
         <v>4</v>
       </c>
-      <c r="I118" s="13"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I118" s="29"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>114</v>
@@ -8544,26 +8799,28 @@
       <c r="F119" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G119" s="23">
+      <c r="G119" s="21">
         <v>1399</v>
       </c>
       <c r="H119" s="12">
         <v>4</v>
       </c>
-      <c r="I119" s="14"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I119" s="30"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="32"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>114</v>
@@ -8571,20 +8828,22 @@
       <c r="F120" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G120" s="22">
+      <c r="G120" s="20">
         <v>799</v>
       </c>
       <c r="H120" s="10">
         <v>4</v>
       </c>
-      <c r="I120" s="13"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I120" s="29"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>69</v>
@@ -8596,22 +8855,24 @@
         <v>113</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G121" s="23">
+        <v>220</v>
+      </c>
+      <c r="G121" s="21">
         <v>580</v>
       </c>
       <c r="H121" s="12">
         <v>5</v>
       </c>
-      <c r="I121" s="14"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I121" s="30"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>69</v>
@@ -8623,49 +8884,53 @@
         <v>114</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G122" s="22">
+        <v>180</v>
+      </c>
+      <c r="G122" s="20">
         <v>399</v>
       </c>
       <c r="H122" s="10">
         <v>4</v>
       </c>
-      <c r="I122" s="13"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I122" s="29"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G123" s="23">
+        <v>181</v>
+      </c>
+      <c r="G123" s="21">
         <v>580</v>
       </c>
       <c r="H123" s="12">
         <v>5</v>
       </c>
-      <c r="I123" s="14"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I123" s="30"/>
+      <c r="J123" s="32"/>
+      <c r="K123" s="32"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>69</v>
@@ -8677,74 +8942,206 @@
         <v>114</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G124" s="22">
+        <v>182</v>
+      </c>
+      <c r="G124" s="20">
         <v>939</v>
       </c>
       <c r="H124" s="10">
         <v>4</v>
       </c>
-      <c r="I124" s="13"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I124" s="29"/>
+      <c r="J124" s="32"/>
+      <c r="K124" s="32"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G125" s="23">
+        <v>183</v>
+      </c>
+      <c r="G125" s="21">
         <v>1450</v>
       </c>
       <c r="H125" s="12">
         <v>4</v>
       </c>
-      <c r="I125" s="14"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="24" t="s">
+      <c r="I125" s="30"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B126" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C126" s="25" t="s">
+      <c r="B126" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E126" s="25" t="s">
+      <c r="E126" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F126" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G126" s="26">
+      <c r="F126" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G126" s="24">
         <v>378.99</v>
       </c>
-      <c r="H126" s="25">
+      <c r="H126" s="23">
         <v>4</v>
       </c>
-      <c r="I126" s="27"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G127" s="24">
+        <v>158</v>
+      </c>
+      <c r="H127" s="23">
+        <v>4</v>
+      </c>
+      <c r="I127" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J127" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K127" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G128" s="24">
+        <v>120</v>
+      </c>
+      <c r="H128" s="23">
+        <v>4</v>
+      </c>
+      <c r="I128" s="31"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="33"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F129" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G129" s="24">
+        <v>129</v>
+      </c>
+      <c r="H129" s="23">
+        <v>4</v>
+      </c>
+      <c r="I129" s="31"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="G130" s="24">
+        <v>125</v>
+      </c>
+      <c r="H130" s="23">
+        <v>4</v>
+      </c>
+      <c r="I130" s="31"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="33"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F129" r:id="rId1" display="https://www.ttartisan.com/?AF-Lens/AF-56.html"/>
+    <hyperlink ref="F130" r:id="rId2" display="https://www.ttartisan.com/?AF-Lens/AF-35-II.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos_sony_lentes_maestra.xlsx
+++ b/productos_sony_lentes_maestra.xlsx
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId4"/>
+    <pivotCache cacheId="63" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="257">
   <si>
     <t>Producto</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Ttartisan</t>
   </si>
   <si>
-    <t>Ttartisan 75mm f/2,0 FE, Full Frame</t>
-  </si>
-  <si>
     <t>62 mm</t>
   </si>
   <si>
@@ -730,9 +727,6 @@
     <t>340 gr</t>
   </si>
   <si>
-    <t>Ttartisan 27mm f/2,8 E, APS-C</t>
-  </si>
-  <si>
     <t>TTArtisan AF 56mm F1.8</t>
   </si>
   <si>
@@ -740,6 +734,87 @@
   </si>
   <si>
     <t>Retratos, Foto de Calle, Foto de producto</t>
+  </si>
+  <si>
+    <t>TTArtisan AF 27mm f/2,8 E, APS-C</t>
+  </si>
+  <si>
+    <t>TTArtisan AF 75mm f/2,0 FE, Full Frame</t>
+  </si>
+  <si>
+    <t>Samyang</t>
+  </si>
+  <si>
+    <t>Retratos, Bodas, Foto de Producto, Viajes</t>
+  </si>
+  <si>
+    <t>Samyang AF 24mm F/2,8 FE</t>
+  </si>
+  <si>
+    <t>Samyang AF 35mm - 150mm F/2,0 - 2,8 FE</t>
+  </si>
+  <si>
+    <t>Samyang AF 35mm F/2,8 FE</t>
+  </si>
+  <si>
+    <t>Samyang AF 24mm F/1,8 FE</t>
+  </si>
+  <si>
+    <t>Samyang AF 18mm F/2,8 FE</t>
+  </si>
+  <si>
+    <t>Vlog, Paisajes, Videos Youtube</t>
+  </si>
+  <si>
+    <t>Samyang AF 35mm F/1,8 FE</t>
+  </si>
+  <si>
+    <t>Samyang AF 45mm F/1,8 FE</t>
+  </si>
+  <si>
+    <t>Retratos, Foto de producto</t>
+  </si>
+  <si>
+    <t>Retratos, Foto de producto, Videos Youtube</t>
+  </si>
+  <si>
+    <t>Laowa</t>
+  </si>
+  <si>
+    <t>Ultra Gran Angular</t>
+  </si>
+  <si>
+    <t>Paisajes, Arquitectura, Bienes Raices</t>
+  </si>
+  <si>
+    <t>Laowa AF 10mm F/2,8 FE</t>
+  </si>
+  <si>
+    <t>Retratos,</t>
+  </si>
+  <si>
+    <t>Samyang AF 75mm F/1,8 FE</t>
+  </si>
+  <si>
+    <t>49 mm</t>
+  </si>
+  <si>
+    <t>ZEISS BATIS</t>
+  </si>
+  <si>
+    <t>Gran angular</t>
+  </si>
+  <si>
+    <t>Zeiss Batis 25mm F/2 FE</t>
+  </si>
+  <si>
+    <t>Zeiss Batis 18mm F/2,8 FE</t>
+  </si>
+  <si>
+    <t>Zeiss Batis 135mm F/2,8 FE</t>
+  </si>
+  <si>
+    <t>Zeiss Batis 85mm F/1,8 FE</t>
   </si>
 </sst>
 </file>
@@ -749,7 +824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +869,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -833,7 +914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -985,13 +1066,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1016,10 +1121,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1035,12 +1136,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1059,6 +1154,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1066,6 +1200,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1531,16 +1675,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1860,11 +1994,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ortega Mazzini, David" refreshedDate="45653.416242245374" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="125">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ortega Mazzini, David" refreshedDate="45653.492214004633" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="142">
   <cacheSource type="worksheet">
     <worksheetSource name="Datos"/>
   </cacheSource>
-  <cacheFields count="9">
+  <cacheFields count="11">
     <cacheField name="Tipo" numFmtId="0">
       <sharedItems count="3">
         <s v="Fijo"/>
@@ -1873,17 +2007,21 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Marca" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems count="10">
         <s v="Sony"/>
         <s v="Tamron "/>
         <s v="Sigma "/>
         <s v="Viltrox "/>
         <s v="Yongnuo "/>
         <s v="Tokina "/>
+        <s v="Ttartisan"/>
+        <s v="Samyang"/>
+        <s v="Laowa"/>
+        <s v="ZEISS BATIS"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Categoria" numFmtId="0">
-      <sharedItems containsBlank="1" count="19">
+      <sharedItems containsBlank="1" count="20">
         <s v="Telecorto"/>
         <s v="Kit"/>
         <s v="Gran Angular"/>
@@ -1903,6 +2041,7 @@
         <s v="Telecorto -  Teleobjetivo"/>
         <s v="Teleobjetivo - Super Tele"/>
         <s v="Angular Tele corto"/>
+        <s v="Ultra Gran Angular"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Uso" numFmtId="0">
@@ -1915,7 +2054,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Nombre" numFmtId="0">
-      <sharedItems count="129">
+      <sharedItems count="147">
         <s v="FE 85 mm F1.4 GM II"/>
         <s v="Lente E PZ 16-50 mm F3.5-5.6 OSS II"/>
         <s v="FE 16-25 mm F2.8 G"/>
@@ -2041,10 +2180,28 @@
         <s v="Sigma 50mm f/1.4 DG DN Art para Sony E”"/>
         <s v="Sigma 14-24mm f/2.8 DG DN Art para Sony E"/>
         <s v="Viltrox AF 28mm f/1.8 FE, Full Frame, para Sony E"/>
+        <s v="TTArtisan AF 75mm f/2,0 FE, Full Frame"/>
+        <s v="TTArtisan AF 27mm f/2,8 E, APS-C"/>
+        <s v="TTArtisan AF 56mm F1.8"/>
+        <s v="TTArtisan AF 35mm F1.8 II"/>
+        <s v="Samyang AF 24mm F/2,8 FE"/>
+        <s v="Samyang AF 35mm - 150mm F/2,0 - 2,8 FE"/>
+        <s v="Samyang AF 35mm F/2,8 FE"/>
+        <s v="Samyang AF 24mm F/1,8 FE"/>
+        <s v="Samyang AF 18mm F/2,8 FE"/>
+        <s v="Samyang AF 35mm F/1,8 FE"/>
+        <s v="Samyang AF 45mm F/1,8 FE"/>
+        <s v="Laowa AF 10mm F/2,8 FE"/>
+        <s v="Samyang AF 75mm F/1,8 FE"/>
+        <s v="Zeiss Batis 25mm F/2 FE"/>
+        <s v="Zeiss Batis 18mm F/2,8 FE"/>
+        <s v="Zeiss Batis 135mm F/2,8 FE"/>
+        <s v="Zeiss Batis 85mm F/1,8 FE"/>
         <s v="Viltrox 75mm f/1.2 AF, APS-C para Sony E" u="1"/>
         <s v="Viltrox AF 75mm f/1.2, APS-C para Sony E" u="1"/>
         <s v="Viltrox AF 28mm f/1,8 FE, Full Frame, para Sony" u="1"/>
         <s v="Viltrox AF 28mm f/1.8 FE, Full Frame, para Sony" u="1"/>
+        <s v="Samyanf AF 24mm F/2,8 FE" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Precio" numFmtId="44">
@@ -2054,7 +2211,13 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2" maxValue="5"/>
     </cacheField>
     <cacheField name="Tamaño de Filtro" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Distancia Minima de Enfoque" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Peso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2066,7 +2229,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="125">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="142">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2077,6 +2240,8 @@
     <n v="2058.9899999999998"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2087,6 +2252,8 @@
     <x v="1"/>
     <n v="339"/>
     <n v="2"/>
+    <m/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2099,6 +2266,8 @@
     <n v="1368.99"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2110,6 +2279,8 @@
     <n v="1259"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2121,6 +2292,8 @@
     <n v="6888.99"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2132,6 +2305,8 @@
     <n v="2639"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2143,6 +2318,8 @@
     <n v="1949"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2154,6 +2331,8 @@
     <n v="1368.99"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2165,6 +2344,8 @@
     <n v="1138.99"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2176,6 +2357,8 @@
     <n v="739"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2187,6 +2370,8 @@
     <n v="2639"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2198,6 +2383,8 @@
     <n v="3208.99"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2209,6 +2396,8 @@
     <n v="1719"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2220,6 +2409,8 @@
     <n v="2179"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2231,6 +2422,8 @@
     <n v="1489"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2242,6 +2435,8 @@
     <n v="2748.99"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2253,6 +2448,8 @@
     <n v="2058.9899999999998"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2264,6 +2461,8 @@
     <n v="1828.99"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2275,6 +2474,8 @@
     <n v="1489"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2286,6 +2487,8 @@
     <n v="739"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2297,6 +2500,8 @@
     <n v="569"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2308,6 +2513,8 @@
     <n v="1419"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2319,6 +2526,8 @@
     <n v="2179"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2330,6 +2539,8 @@
     <n v="908.99"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2341,6 +2552,8 @@
     <n v="2179"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2352,6 +2565,8 @@
     <n v="1138.99"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2363,6 +2578,8 @@
     <n v="629"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2374,6 +2591,8 @@
     <n v="1089"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2385,6 +2604,8 @@
     <n v="629"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2396,6 +2617,8 @@
     <n v="629"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2407,6 +2630,8 @@
     <n v="629"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -2418,6 +2643,8 @@
     <n v="629"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -2429,6 +2656,8 @@
     <n v="629"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2440,6 +2669,8 @@
     <n v="1029"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2451,6 +2682,8 @@
     <n v="739"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2462,6 +2695,8 @@
     <n v="1259"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2472,6 +2707,8 @@
     <x v="36"/>
     <n v="1029"/>
     <n v="4"/>
+    <s v="49 mm"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2484,6 +2721,8 @@
     <n v="629"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2495,6 +2734,8 @@
     <n v="2029"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2506,6 +2747,8 @@
     <n v="739"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2517,6 +2760,8 @@
     <n v="908.99"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2528,6 +2773,8 @@
     <n v="1138.99"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2539,6 +2786,8 @@
     <n v="279"/>
     <n v="2"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2550,6 +2799,8 @@
     <n v="799"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2561,6 +2812,8 @@
     <n v="419"/>
     <n v="2"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2572,6 +2825,8 @@
     <n v="509"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2583,6 +2838,8 @@
     <n v="339"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2594,6 +2851,8 @@
     <n v="339"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2604,6 +2863,8 @@
     <x v="48"/>
     <n v="218.99"/>
     <n v="3"/>
+    <s v="49 mm"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2616,6 +2877,8 @@
     <n v="279"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2626,6 +2889,8 @@
     <x v="50"/>
     <n v="479"/>
     <n v="3.5"/>
+    <s v="49 mm"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2638,6 +2903,8 @@
     <n v="448.99"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2648,6 +2915,8 @@
     <x v="52"/>
     <n v="339"/>
     <n v="3"/>
+    <s v="49 mm"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2660,6 +2929,8 @@
     <n v="1489"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2671,6 +2942,8 @@
     <n v="3559"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2682,6 +2955,8 @@
     <n v="2409"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2693,6 +2968,8 @@
     <n v="569"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2704,6 +2981,8 @@
     <n v="1489"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2714,6 +2993,8 @@
     <x v="58"/>
     <n v="799"/>
     <n v="4"/>
+    <s v="49 mm"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2726,6 +3007,8 @@
     <n v="1719"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2737,6 +3020,8 @@
     <n v="999.01"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2748,6 +3033,8 @@
     <n v="629"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2759,6 +3046,8 @@
     <n v="1099"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2770,6 +3059,8 @@
     <n v="1399"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2781,6 +3072,8 @@
     <n v="919"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2792,6 +3085,8 @@
     <n v="169"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2803,6 +3098,8 @@
     <n v="99"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2814,6 +3111,8 @@
     <n v="969"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2825,6 +3124,8 @@
     <n v="1289"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2836,6 +3137,8 @@
     <n v="349"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2847,6 +3150,8 @@
     <n v="698"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2858,6 +3163,8 @@
     <n v="579"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2869,6 +3176,8 @@
     <n v="176"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2880,6 +3189,8 @@
     <n v="378.99"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2891,6 +3202,8 @@
     <n v="299"/>
     <n v="3"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2902,6 +3215,8 @@
     <n v="389"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2913,6 +3228,8 @@
     <n v="375"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2924,6 +3241,8 @@
     <n v="285"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2935,6 +3254,8 @@
     <n v="299"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2946,6 +3267,8 @@
     <n v="769.01"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2957,6 +3280,8 @@
     <n v="998.99"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2968,6 +3293,8 @@
     <n v="375"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2979,6 +3306,8 @@
     <n v="475"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -2990,6 +3319,8 @@
     <n v="279"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3001,6 +3332,8 @@
     <n v="480"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3012,6 +3345,8 @@
     <n v="399"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3023,6 +3358,8 @@
     <n v="369"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3034,6 +3371,8 @@
     <n v="375"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3045,6 +3384,8 @@
     <n v="419"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3056,6 +3397,8 @@
     <n v="163.25"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3067,6 +3410,8 @@
     <n v="448.99"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3078,6 +3423,8 @@
     <n v="500"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3089,6 +3436,8 @@
     <n v="939"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3100,6 +3449,8 @@
     <n v="649"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3111,6 +3462,8 @@
     <n v="998.99"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3122,6 +3475,8 @@
     <n v="319"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3133,6 +3488,8 @@
     <n v="998.99"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3144,6 +3501,8 @@
     <n v="370"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3155,6 +3514,8 @@
     <n v="755"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3166,6 +3527,8 @@
     <n v="431"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3177,6 +3540,8 @@
     <n v="949"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3188,6 +3553,8 @@
     <n v="1335"/>
     <n v="4.55"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3199,6 +3566,8 @@
     <n v="535"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3210,6 +3579,8 @@
     <n v="899"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3221,6 +3592,8 @@
     <n v="799"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3232,6 +3605,8 @@
     <n v="669"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3243,6 +3618,8 @@
     <n v="870"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3254,6 +3631,8 @@
     <n v="769.01"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3265,6 +3644,8 @@
     <n v="1999"/>
     <n v="4.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3276,6 +3657,8 @@
     <n v="750"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3287,6 +3670,8 @@
     <n v="279"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3298,6 +3683,8 @@
     <n v="229"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3309,6 +3696,8 @@
     <n v="229"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3320,6 +3709,8 @@
     <n v="287.99"/>
     <n v="3.5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3331,6 +3722,8 @@
     <n v="299"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3342,6 +3735,8 @@
     <n v="599"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3353,6 +3748,8 @@
     <n v="1399"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3364,6 +3761,8 @@
     <n v="1399"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3375,6 +3774,8 @@
     <n v="799"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3386,6 +3787,8 @@
     <n v="580"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3397,6 +3800,8 @@
     <n v="399"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3408,6 +3813,8 @@
     <n v="580"/>
     <n v="5"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3419,6 +3826,8 @@
     <n v="939"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3430,6 +3839,8 @@
     <n v="1450"/>
     <n v="4"/>
     <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3440,15 +3851,238 @@
     <x v="124"/>
     <n v="378.99"/>
     <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="Retratos"/>
+    <x v="0"/>
+    <x v="125"/>
+    <n v="158"/>
+    <n v="4"/>
+    <s v="62 mm"/>
+    <s v="75 cm"/>
+    <s v="340 gr"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="8"/>
+    <s v="Foto de Calle"/>
+    <x v="1"/>
+    <x v="126"/>
+    <n v="120"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="Retratos"/>
+    <x v="1"/>
+    <x v="127"/>
+    <n v="129"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="Retratos, Foto de Calle, Foto de producto"/>
+    <x v="1"/>
+    <x v="128"/>
+    <n v="125"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="8"/>
+    <s v="Vlog, Paisajes, Videos Youtube"/>
+    <x v="0"/>
+    <x v="129"/>
+    <n v="180"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="16"/>
+    <s v="Retratos, Bodas, Foto de Producto, Viajes"/>
+    <x v="0"/>
+    <x v="130"/>
+    <n v="800"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="Retratos, Foto de Calle, Foto de producto"/>
+    <x v="0"/>
+    <x v="131"/>
+    <n v="180"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="8"/>
+    <s v="Vlog, Paisajes, Videos Youtube"/>
+    <x v="0"/>
+    <x v="132"/>
+    <n v="290"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="8"/>
+    <s v="Vlog, Paisajes, Videos Youtube"/>
+    <x v="0"/>
+    <x v="133"/>
+    <n v="180"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="Retratos, Foto de producto, Videos Youtube"/>
+    <x v="0"/>
+    <x v="134"/>
+    <n v="290"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="Retratos, Foto de producto"/>
+    <x v="0"/>
+    <x v="135"/>
+    <n v="390"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="19"/>
+    <s v="Paisajes, Arquitectura, Bienes Raices"/>
+    <x v="0"/>
+    <x v="136"/>
+    <n v="799"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="5"/>
+    <s v="Retratos,"/>
+    <x v="0"/>
+    <x v="137"/>
+    <n v="314"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="8"/>
+    <s v="Vlog, Paisajes, Videos Youtube"/>
+    <x v="0"/>
+    <x v="138"/>
+    <n v="1000"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <s v="Vlog, Paisajes, Videos Youtube"/>
+    <x v="0"/>
+    <x v="139"/>
+    <n v="1159"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="5"/>
+    <s v="Retratos"/>
+    <x v="0"/>
+    <x v="140"/>
+    <n v="1280"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="5"/>
+    <s v="Retratos"/>
+    <x v="0"/>
+    <x v="141"/>
+    <n v="1199"/>
+    <n v="4"/>
+    <m/>
+    <m/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
     <pivotField showAll="0">
       <items count="4">
         <item x="2"/>
@@ -3458,17 +4092,21 @@
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
+      <items count="10">
+        <item h="1" x="8"/>
+        <item h="1" x="7"/>
         <item h="1" x="2"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="3"/>
         <item h="1" x="4"/>
+        <item h="1" x="9"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="20">
+      <items count="21">
         <item x="8"/>
         <item x="13"/>
         <item x="18"/>
@@ -3486,6 +4124,7 @@
         <item x="17"/>
         <item x="11"/>
         <item x="7"/>
+        <item x="19"/>
         <item x="6"/>
         <item x="14"/>
         <item t="default"/>
@@ -3495,12 +4134,12 @@
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="130">
+      <items count="148">
         <item x="60"/>
         <item x="20"/>
         <item x="19"/>
@@ -3551,6 +4190,7 @@
         <item x="37"/>
         <item x="25"/>
         <item x="21"/>
+        <item x="136"/>
         <item x="1"/>
         <item x="35"/>
         <item x="32"/>
@@ -3558,6 +4198,15 @@
         <item x="5"/>
         <item x="49"/>
         <item x="61"/>
+        <item m="1" x="146"/>
+        <item x="133"/>
+        <item x="132"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="134"/>
+        <item x="131"/>
+        <item x="135"/>
+        <item x="137"/>
         <item x="96"/>
         <item x="70"/>
         <item x="106"/>
@@ -3603,17 +4252,21 @@
         <item x="90"/>
         <item x="114"/>
         <item x="83"/>
+        <item x="126"/>
+        <item x="128"/>
+        <item x="127"/>
+        <item x="125"/>
         <item x="58"/>
         <item x="41"/>
         <item x="43"/>
-        <item m="1" x="125"/>
+        <item m="1" x="142"/>
         <item x="121"/>
         <item x="72"/>
         <item x="74"/>
         <item x="75"/>
         <item x="71"/>
-        <item m="1" x="127"/>
-        <item m="1" x="128"/>
+        <item m="1" x="144"/>
+        <item m="1" x="145"/>
         <item x="124"/>
         <item x="66"/>
         <item x="77"/>
@@ -3622,7 +4275,7 @@
         <item x="76"/>
         <item x="78"/>
         <item x="119"/>
-        <item m="1" x="126"/>
+        <item m="1" x="143"/>
         <item x="120"/>
         <item x="69"/>
         <item x="113"/>
@@ -3630,31 +4283,46 @@
         <item x="97"/>
         <item x="89"/>
         <item x="87"/>
+        <item x="140"/>
+        <item x="139"/>
+        <item x="138"/>
+        <item x="141"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="44" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="9">
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
     <i>
       <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
     </i>
     <i>
       <x v="110"/>
     </i>
     <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="120"/>
+      <x v="111"/>
     </i>
     <i t="grand">
       <x/>
@@ -3687,8 +4355,8 @@
     <tabular pivotCacheId="952029092">
       <items count="3">
         <i x="0" s="1"/>
+        <i x="1" s="1"/>
         <i x="2" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -3702,9 +4370,11 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="952029092">
-      <items count="19">
+      <items count="20">
         <i x="8" s="1"/>
+        <i x="9" s="1"/>
         <i x="0" s="1"/>
+        <i x="14" s="1"/>
         <i x="13" s="1" nd="1"/>
         <i x="18" s="1" nd="1"/>
         <i x="3" s="1" nd="1"/>
@@ -3713,15 +4383,14 @@
         <i x="2" s="1" nd="1"/>
         <i x="12" s="1" nd="1"/>
         <i x="1" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
         <i x="4" s="1" nd="1"/>
         <i x="16" s="1" nd="1"/>
         <i x="5" s="1" nd="1"/>
         <i x="17" s="1" nd="1"/>
         <i x="11" s="1" nd="1"/>
         <i x="7" s="1" nd="1"/>
+        <i x="19" s="1" nd="1"/>
         <i x="6" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -3735,13 +4404,17 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="952029092">
-      <items count="6">
+      <items count="10">
+        <i x="8"/>
+        <i x="7"/>
         <i x="2"/>
         <i x="0"/>
         <i x="1"/>
-        <i x="5"/>
-        <i x="3" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6"/>
+        <i x="3"/>
         <i x="4"/>
+        <i x="9"/>
       </items>
     </tabular>
   </data>
@@ -3757,7 +4430,7 @@
     <tabular pivotCacheId="952029092">
       <items count="2">
         <i x="1" s="1"/>
-        <i x="0"/>
+        <i x="0" s="1"/>
       </items>
     </tabular>
   </data>
@@ -3774,20 +4447,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A1:K130" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:K130"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A1:K143" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:K143"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Tipo" dataDxfId="10"/>
-    <tableColumn id="9" name="Marca" dataDxfId="9"/>
-    <tableColumn id="2" name="Categoria" dataDxfId="8"/>
-    <tableColumn id="3" name="Uso" dataDxfId="7"/>
-    <tableColumn id="4" name="Sensor" dataDxfId="6"/>
-    <tableColumn id="5" name="Nombre" dataDxfId="5"/>
-    <tableColumn id="6" name="Precio" dataDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="Calificacion" dataDxfId="3"/>
-    <tableColumn id="8" name="Tamaño de Filtro" dataDxfId="2"/>
-    <tableColumn id="10" name="Distancia Minima de Enfoque" dataDxfId="1"/>
-    <tableColumn id="11" name="Peso" dataDxfId="0"/>
+    <tableColumn id="1" name="Tipo" dataDxfId="11"/>
+    <tableColumn id="9" name="Marca" dataDxfId="10"/>
+    <tableColumn id="2" name="Categoria" dataDxfId="9"/>
+    <tableColumn id="3" name="Uso" dataDxfId="8"/>
+    <tableColumn id="4" name="Sensor" dataDxfId="7"/>
+    <tableColumn id="5" name="Nombre" dataDxfId="6"/>
+    <tableColumn id="6" name="Precio" dataDxfId="5" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Calificacion" dataDxfId="4"/>
+    <tableColumn id="8" name="Tamaño de Filtro" dataDxfId="3"/>
+    <tableColumn id="10" name="Distancia Minima de Enfoque" dataDxfId="2"/>
+    <tableColumn id="11" name="Peso" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4095,14 +4768,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5243,7 +5916,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G64">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Mismo Precio"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5254,15 +5927,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5275,51 +5948,75 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="26">
+      <c r="A4" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="22">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="22">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="22">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="22">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="22">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="22">
+        <v>448.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="22">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="26">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="26">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="26">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="26">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="22">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="26">
-        <v>2042</v>
+      <c r="B12" s="22">
+        <v>3292.99</v>
       </c>
     </row>
   </sheetData>
@@ -5338,10 +6035,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D114" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5371,10 +6068,10 @@
       <c r="E1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="14" t="s">
@@ -5384,10 +6081,10 @@
         <v>84</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5403,21 +6100,21 @@
       <c r="D2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="47">
         <v>2058.9899999999998</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>5</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -5432,21 +6129,21 @@
       <c r="D3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="49">
         <v>339</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -5461,21 +6158,21 @@
       <c r="D4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="47">
         <v>1368.99</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>4</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -5490,21 +6187,21 @@
       <c r="D5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="49">
         <v>1259</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>4</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -5519,21 +6216,21 @@
       <c r="D6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="47">
         <v>6888.99</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>5</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -5548,21 +6245,21 @@
       <c r="D7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="49">
         <v>2639</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>5</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -5577,21 +6274,21 @@
       <c r="D8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="47">
         <v>1949</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>5</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -5606,21 +6303,21 @@
       <c r="D9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="49">
         <v>1368.99</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>5</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -5635,21 +6332,21 @@
       <c r="D10" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="47">
         <v>1138.99</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>4</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -5664,21 +6361,21 @@
       <c r="D11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="49">
         <v>739</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>4</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -5693,21 +6390,21 @@
       <c r="D12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="47">
         <v>2639</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>5</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -5722,21 +6419,21 @@
       <c r="D13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="49">
         <v>3208.99</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>5</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -5751,21 +6448,21 @@
       <c r="D14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="47">
         <v>1719</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>5</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -5780,21 +6477,21 @@
       <c r="D15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="49">
         <v>2179</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>5</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -5809,21 +6506,21 @@
       <c r="D16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="47">
         <v>1489</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -5838,21 +6535,21 @@
       <c r="D17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="49">
         <v>2748.99</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>4</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -5867,21 +6564,21 @@
       <c r="D18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="47">
         <v>2058.9899999999998</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>4</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -5896,21 +6593,21 @@
       <c r="D19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="49">
         <v>1828.99</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>4</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -5925,21 +6622,21 @@
       <c r="D20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="47">
         <v>1489</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>4</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -5954,21 +6651,21 @@
       <c r="D21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="49">
         <v>739</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>4</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -5983,21 +6680,21 @@
       <c r="D22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="47">
         <v>569</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>4</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -6012,21 +6709,21 @@
       <c r="D23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="49">
         <v>1419</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>4</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -6041,21 +6738,21 @@
       <c r="D24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="47">
         <v>2179</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>5</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -6070,21 +6767,21 @@
       <c r="D25" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="49">
         <v>908.99</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>5</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -6099,21 +6796,21 @@
       <c r="D26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="47">
         <v>2179</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>5</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -6128,21 +6825,21 @@
       <c r="D27" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="49">
         <v>1138.99</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>4</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -6157,21 +6854,21 @@
       <c r="D28" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="47">
         <v>629</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>3</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -6186,21 +6883,21 @@
       <c r="D29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="49">
         <v>1089</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>3</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -6215,21 +6912,21 @@
       <c r="D30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="47">
         <v>629</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>4</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -6244,21 +6941,21 @@
       <c r="D31" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="49">
         <v>629</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>4</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -6273,21 +6970,21 @@
       <c r="D32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="47">
         <v>629</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>4</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
@@ -6302,21 +6999,21 @@
       <c r="D33" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="49">
         <v>629</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>4</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -6331,21 +7028,21 @@
       <c r="D34" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="47">
         <v>629</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>4</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -6360,21 +7057,21 @@
       <c r="D35" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="49">
         <v>1029</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>3.5</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -6389,21 +7086,21 @@
       <c r="D36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="47">
         <v>739</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>5</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -6418,21 +7115,21 @@
       <c r="D37" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="49">
         <v>1259</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>4</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -6447,21 +7144,23 @@
       <c r="D38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="47">
         <v>1029</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>4</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
+      <c r="I38" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -6476,21 +7175,21 @@
       <c r="D39" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="49">
         <v>629</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>4</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
@@ -6505,21 +7204,21 @@
       <c r="D40" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="47">
         <v>2029</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>4</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -6534,21 +7233,21 @@
       <c r="D41" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="49">
         <v>739</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>3.5</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -6563,21 +7262,21 @@
       <c r="D42" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="47">
         <v>908.99</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>4</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
@@ -6592,21 +7291,21 @@
       <c r="D43" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="49">
         <v>1138.99</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="11">
         <v>3</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
@@ -6621,21 +7320,21 @@
       <c r="D44" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="47">
         <v>279</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>2</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -6650,21 +7349,21 @@
       <c r="D45" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="49">
         <v>799</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>3.5</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
@@ -6679,21 +7378,21 @@
       <c r="D46" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="47">
         <v>419</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>2</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
@@ -6708,21 +7407,21 @@
       <c r="D47" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="49">
         <v>509</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <v>4</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
@@ -6737,21 +7436,21 @@
       <c r="D48" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="47">
         <v>339</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>4</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
@@ -6766,21 +7465,21 @@
       <c r="D49" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="49">
         <v>339</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <v>3</v>
       </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
@@ -6795,21 +7494,23 @@
       <c r="D50" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="47">
         <v>218.99</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>3</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
+      <c r="I50" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
@@ -6824,21 +7525,21 @@
       <c r="D51" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="49">
         <v>279</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>3.5</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -6853,21 +7554,23 @@
       <c r="D52" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="47">
         <v>479</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>3.5</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
+      <c r="I52" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
@@ -6882,21 +7585,21 @@
       <c r="D53" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="49">
         <v>448.99</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="11">
         <v>3</v>
       </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
@@ -6911,21 +7614,23 @@
       <c r="D54" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="47">
         <v>339</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>3</v>
       </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
+      <c r="I54" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
@@ -6940,21 +7645,21 @@
       <c r="D55" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="49">
         <v>1489</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>5</v>
       </c>
-      <c r="I55" s="30"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
@@ -6969,21 +7674,21 @@
       <c r="D56" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="47">
         <v>3559</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>5</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
@@ -6998,21 +7703,21 @@
       <c r="D57" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="49">
         <v>2409</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>5</v>
       </c>
-      <c r="I57" s="30"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
@@ -7027,21 +7732,21 @@
       <c r="D58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="47">
         <v>569</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="9">
         <v>3</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
@@ -7056,21 +7761,21 @@
       <c r="D59" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="49">
         <v>1489</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>5</v>
       </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
@@ -7085,21 +7790,23 @@
       <c r="D60" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="47">
         <v>799</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <v>4</v>
       </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
+      <c r="I60" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -7114,21 +7821,21 @@
       <c r="D61" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="49">
         <v>1719</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <v>5</v>
       </c>
-      <c r="I61" s="30"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
@@ -7143,21 +7850,21 @@
       <c r="D62" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="47">
         <v>999.01</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>3.5</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
@@ -7172,21 +7879,21 @@
       <c r="D63" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="49">
         <v>629</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>3</v>
       </c>
-      <c r="I63" s="30"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
@@ -7204,18 +7911,18 @@
       <c r="E64" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="45">
         <v>1099</v>
       </c>
       <c r="H64" s="10">
         <v>4</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
@@ -7236,15 +7943,15 @@
       <c r="F65" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="17">
         <v>1399</v>
       </c>
       <c r="H65" s="12">
         <v>5</v>
       </c>
-      <c r="I65" s="30"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
@@ -7265,15 +7972,15 @@
       <c r="F66" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="16">
         <v>919</v>
       </c>
       <c r="H66" s="10">
         <v>5</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -7294,15 +8001,15 @@
       <c r="F67" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="17">
         <v>169</v>
       </c>
       <c r="H67" s="12">
         <v>4</v>
       </c>
-      <c r="I67" s="30"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
@@ -7323,15 +8030,15 @@
       <c r="F68" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G68" s="16">
         <v>99</v>
       </c>
       <c r="H68" s="10">
         <v>4</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
@@ -7352,15 +8059,15 @@
       <c r="F69" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G69" s="17">
         <v>969</v>
       </c>
       <c r="H69" s="12">
         <v>3</v>
       </c>
-      <c r="I69" s="30"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
@@ -7381,15 +8088,15 @@
       <c r="F70" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="16">
         <v>1289</v>
       </c>
       <c r="H70" s="10">
         <v>5</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
@@ -7410,15 +8117,15 @@
       <c r="F71" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G71" s="17">
         <v>349</v>
       </c>
       <c r="H71" s="12">
         <v>4</v>
       </c>
-      <c r="I71" s="30"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
@@ -7439,15 +8146,15 @@
       <c r="F72" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G72" s="16">
         <v>698</v>
       </c>
       <c r="H72" s="10">
         <v>4</v>
       </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
@@ -7468,15 +8175,15 @@
       <c r="F73" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="17">
         <v>579</v>
       </c>
       <c r="H73" s="12">
         <v>5</v>
       </c>
-      <c r="I73" s="30"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
@@ -7497,15 +8204,15 @@
       <c r="F74" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G74" s="20">
+      <c r="G74" s="16">
         <v>176</v>
       </c>
       <c r="H74" s="10">
         <v>4</v>
       </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
@@ -7526,15 +8233,15 @@
       <c r="F75" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="17">
         <v>378.99</v>
       </c>
       <c r="H75" s="12">
         <v>4</v>
       </c>
-      <c r="I75" s="30"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
@@ -7555,15 +8262,15 @@
       <c r="F76" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G76" s="20">
+      <c r="G76" s="16">
         <v>299</v>
       </c>
       <c r="H76" s="10">
         <v>3</v>
       </c>
-      <c r="I76" s="29"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
@@ -7584,15 +8291,15 @@
       <c r="F77" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G77" s="17">
         <v>389</v>
       </c>
       <c r="H77" s="12">
         <v>4</v>
       </c>
-      <c r="I77" s="30"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
@@ -7613,15 +8320,15 @@
       <c r="F78" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G78" s="20">
+      <c r="G78" s="16">
         <v>375</v>
       </c>
       <c r="H78" s="10">
         <v>4</v>
       </c>
-      <c r="I78" s="29"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
@@ -7642,15 +8349,15 @@
       <c r="F79" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G79" s="17">
         <v>285</v>
       </c>
       <c r="H79" s="12">
         <v>3.5</v>
       </c>
-      <c r="I79" s="30"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
@@ -7671,15 +8378,15 @@
       <c r="F80" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="16">
         <v>299</v>
       </c>
       <c r="H80" s="10">
         <v>3.5</v>
       </c>
-      <c r="I80" s="29"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
@@ -7700,15 +8407,15 @@
       <c r="F81" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G81" s="21">
+      <c r="G81" s="17">
         <v>769.01</v>
       </c>
       <c r="H81" s="12">
         <v>4</v>
       </c>
-      <c r="I81" s="30"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
@@ -7729,15 +8436,15 @@
       <c r="F82" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G82" s="20">
+      <c r="G82" s="16">
         <v>998.99</v>
       </c>
       <c r="H82" s="10">
         <v>5</v>
       </c>
-      <c r="I82" s="29"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
@@ -7758,15 +8465,15 @@
       <c r="F83" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="17">
         <v>375</v>
       </c>
       <c r="H83" s="12">
         <v>5</v>
       </c>
-      <c r="I83" s="30"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
@@ -7787,15 +8494,15 @@
       <c r="F84" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G84" s="20">
+      <c r="G84" s="16">
         <v>475</v>
       </c>
       <c r="H84" s="10">
         <v>4</v>
       </c>
-      <c r="I84" s="29"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
@@ -7804,7 +8511,9 @@
       <c r="B85" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C85" s="12"/>
+      <c r="C85" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
         <v>114</v>
@@ -7812,15 +8521,15 @@
       <c r="F85" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G85" s="21">
+      <c r="G85" s="17">
         <v>279</v>
       </c>
       <c r="H85" s="12">
         <v>4</v>
       </c>
-      <c r="I85" s="30"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
@@ -7841,15 +8550,15 @@
       <c r="F86" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G86" s="20">
+      <c r="G86" s="16">
         <v>480</v>
       </c>
       <c r="H86" s="10">
         <v>3.5</v>
       </c>
-      <c r="I86" s="29"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
@@ -7870,15 +8579,15 @@
       <c r="F87" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G87" s="21">
+      <c r="G87" s="17">
         <v>399</v>
       </c>
       <c r="H87" s="12">
         <v>3.5</v>
       </c>
-      <c r="I87" s="30"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
@@ -7899,15 +8608,15 @@
       <c r="F88" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G88" s="20">
+      <c r="G88" s="16">
         <v>369</v>
       </c>
       <c r="H88" s="10">
         <v>3.5</v>
       </c>
-      <c r="I88" s="29"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
@@ -7928,15 +8637,15 @@
       <c r="F89" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G89" s="17">
         <v>375</v>
       </c>
       <c r="H89" s="12">
         <v>4</v>
       </c>
-      <c r="I89" s="30"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
@@ -7957,15 +8666,15 @@
       <c r="F90" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G90" s="20">
+      <c r="G90" s="16">
         <v>419</v>
       </c>
       <c r="H90" s="10">
         <v>4</v>
       </c>
-      <c r="I90" s="29"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
@@ -7986,15 +8695,15 @@
       <c r="F91" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="17">
         <v>163.25</v>
       </c>
       <c r="H91" s="12">
         <v>4</v>
       </c>
-      <c r="I91" s="30"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
@@ -8015,15 +8724,15 @@
       <c r="F92" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="G92" s="20">
+      <c r="G92" s="16">
         <v>448.99</v>
       </c>
       <c r="H92" s="10">
         <v>4</v>
       </c>
-      <c r="I92" s="29"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
@@ -8044,15 +8753,15 @@
       <c r="F93" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="17">
         <v>500</v>
       </c>
       <c r="H93" s="12">
         <v>5</v>
       </c>
-      <c r="I93" s="30"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
@@ -8073,15 +8782,15 @@
       <c r="F94" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G94" s="20">
+      <c r="G94" s="16">
         <v>939</v>
       </c>
       <c r="H94" s="10">
         <v>5</v>
       </c>
-      <c r="I94" s="29"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
@@ -8102,15 +8811,15 @@
       <c r="F95" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="17">
         <v>649</v>
       </c>
       <c r="H95" s="12">
         <v>5</v>
       </c>
-      <c r="I95" s="30"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
@@ -8131,15 +8840,15 @@
       <c r="F96" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G96" s="20">
+      <c r="G96" s="16">
         <v>998.99</v>
       </c>
       <c r="H96" s="10">
         <v>5</v>
       </c>
-      <c r="I96" s="29"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="32"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
@@ -8160,15 +8869,15 @@
       <c r="F97" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G97" s="21">
+      <c r="G97" s="17">
         <v>319</v>
       </c>
       <c r="H97" s="12">
         <v>5</v>
       </c>
-      <c r="I97" s="30"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
@@ -8189,15 +8898,15 @@
       <c r="F98" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G98" s="20">
+      <c r="G98" s="16">
         <v>998.99</v>
       </c>
       <c r="H98" s="10">
         <v>5</v>
       </c>
-      <c r="I98" s="29"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
@@ -8218,15 +8927,15 @@
       <c r="F99" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G99" s="21">
+      <c r="G99" s="17">
         <v>370</v>
       </c>
       <c r="H99" s="12">
         <v>4</v>
       </c>
-      <c r="I99" s="30"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
@@ -8247,15 +8956,15 @@
       <c r="F100" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G100" s="20">
+      <c r="G100" s="16">
         <v>755</v>
       </c>
       <c r="H100" s="10">
         <v>4</v>
       </c>
-      <c r="I100" s="29"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -8276,16 +8985,16 @@
       <c r="F101" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="17">
         <f>431</f>
         <v>431</v>
       </c>
       <c r="H101" s="12">
         <v>3.5</v>
       </c>
-      <c r="I101" s="30"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
@@ -8306,15 +9015,15 @@
       <c r="F102" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G102" s="20">
+      <c r="G102" s="16">
         <v>949</v>
       </c>
       <c r="H102" s="10">
         <v>4</v>
       </c>
-      <c r="I102" s="29"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
@@ -8335,15 +9044,15 @@
       <c r="F103" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G103" s="21">
+      <c r="G103" s="17">
         <v>1335</v>
       </c>
       <c r="H103" s="12">
         <v>4.55</v>
       </c>
-      <c r="I103" s="30"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
@@ -8364,15 +9073,15 @@
       <c r="F104" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G104" s="20">
+      <c r="G104" s="16">
         <v>535</v>
       </c>
       <c r="H104" s="10">
         <v>3.5</v>
       </c>
-      <c r="I104" s="29"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
@@ -8393,15 +9102,15 @@
       <c r="F105" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G105" s="21">
+      <c r="G105" s="17">
         <v>899</v>
       </c>
       <c r="H105" s="12">
         <v>4</v>
       </c>
-      <c r="I105" s="30"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
@@ -8422,15 +9131,15 @@
       <c r="F106" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G106" s="20">
+      <c r="G106" s="16">
         <v>799</v>
       </c>
       <c r="H106" s="10">
         <v>3.5</v>
       </c>
-      <c r="I106" s="29"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -8451,15 +9160,15 @@
       <c r="F107" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G107" s="21">
+      <c r="G107" s="17">
         <v>669</v>
       </c>
       <c r="H107" s="12">
         <v>4</v>
       </c>
-      <c r="I107" s="30"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
@@ -8480,15 +9189,15 @@
       <c r="F108" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G108" s="20">
+      <c r="G108" s="16">
         <v>870</v>
       </c>
       <c r="H108" s="10">
         <v>4</v>
       </c>
-      <c r="I108" s="29"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
@@ -8509,15 +9218,15 @@
       <c r="F109" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G109" s="21">
+      <c r="G109" s="17">
         <v>769.01</v>
       </c>
       <c r="H109" s="12">
         <v>4</v>
       </c>
-      <c r="I109" s="30"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="32"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
@@ -8538,15 +9247,15 @@
       <c r="F110" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G110" s="20">
+      <c r="G110" s="16">
         <v>1999</v>
       </c>
       <c r="H110" s="10">
         <v>4.5</v>
       </c>
-      <c r="I110" s="29"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
@@ -8567,15 +9276,15 @@
       <c r="F111" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G111" s="21">
+      <c r="G111" s="17">
         <v>750</v>
       </c>
       <c r="H111" s="12">
         <v>4</v>
       </c>
-      <c r="I111" s="30"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="32"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
@@ -8596,15 +9305,15 @@
       <c r="F112" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G112" s="20">
+      <c r="G112" s="16">
         <v>279</v>
       </c>
       <c r="H112" s="10">
         <v>3.5</v>
       </c>
-      <c r="I112" s="29"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
@@ -8625,15 +9334,15 @@
       <c r="F113" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G113" s="21">
+      <c r="G113" s="17">
         <v>229</v>
       </c>
       <c r="H113" s="12">
         <v>3.5</v>
       </c>
-      <c r="I113" s="30"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
@@ -8654,15 +9363,15 @@
       <c r="F114" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G114" s="20">
+      <c r="G114" s="16">
         <v>229</v>
       </c>
       <c r="H114" s="10">
         <v>3.5</v>
       </c>
-      <c r="I114" s="29"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
@@ -8683,15 +9392,15 @@
       <c r="F115" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G115" s="21">
+      <c r="G115" s="17">
         <v>287.99</v>
       </c>
       <c r="H115" s="12">
         <v>3.5</v>
       </c>
-      <c r="I115" s="30"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
@@ -8712,15 +9421,15 @@
       <c r="F116" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G116" s="20">
+      <c r="G116" s="16">
         <v>299</v>
       </c>
       <c r="H116" s="10">
         <v>4</v>
       </c>
-      <c r="I116" s="29"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="32"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -8741,15 +9450,15 @@
       <c r="F117" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G117" s="21">
+      <c r="G117" s="17">
         <v>599</v>
       </c>
       <c r="H117" s="12">
         <v>4</v>
       </c>
-      <c r="I117" s="30"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
@@ -8770,15 +9479,15 @@
       <c r="F118" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G118" s="20">
+      <c r="G118" s="16">
         <v>1399</v>
       </c>
       <c r="H118" s="10">
         <v>4</v>
       </c>
-      <c r="I118" s="29"/>
-      <c r="J118" s="32"/>
-      <c r="K118" s="32"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
@@ -8799,15 +9508,15 @@
       <c r="F119" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G119" s="17">
         <v>1399</v>
       </c>
       <c r="H119" s="12">
         <v>4</v>
       </c>
-      <c r="I119" s="30"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
@@ -8828,15 +9537,15 @@
       <c r="F120" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G120" s="20">
+      <c r="G120" s="16">
         <v>799</v>
       </c>
       <c r="H120" s="10">
         <v>4</v>
       </c>
-      <c r="I120" s="29"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="32"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
@@ -8857,15 +9566,15 @@
       <c r="F121" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G121" s="21">
+      <c r="G121" s="17">
         <v>580</v>
       </c>
       <c r="H121" s="12">
         <v>5</v>
       </c>
-      <c r="I121" s="30"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
@@ -8886,15 +9595,15 @@
       <c r="F122" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="G122" s="20">
+      <c r="G122" s="16">
         <v>399</v>
       </c>
       <c r="H122" s="10">
         <v>4</v>
       </c>
-      <c r="I122" s="29"/>
-      <c r="J122" s="32"/>
-      <c r="K122" s="32"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
@@ -8915,15 +9624,15 @@
       <c r="F123" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G123" s="21">
+      <c r="G123" s="17">
         <v>580</v>
       </c>
       <c r="H123" s="12">
         <v>5</v>
       </c>
-      <c r="I123" s="30"/>
-      <c r="J123" s="32"/>
-      <c r="K123" s="32"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
@@ -8944,15 +9653,15 @@
       <c r="F124" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G124" s="20">
+      <c r="G124" s="16">
         <v>939</v>
       </c>
       <c r="H124" s="10">
         <v>4</v>
       </c>
-      <c r="I124" s="29"/>
-      <c r="J124" s="32"/>
-      <c r="K124" s="32"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
@@ -8973,166 +9682,543 @@
       <c r="F125" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G125" s="21">
+      <c r="G125" s="17">
         <v>1450</v>
       </c>
       <c r="H125" s="12">
         <v>4</v>
       </c>
-      <c r="I125" s="30"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="26"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D126" s="23" t="s">
+      <c r="D126" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E126" s="23" t="s">
+      <c r="E126" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F126" s="23" t="s">
+      <c r="F126" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="G126" s="24">
+      <c r="G126" s="20">
         <v>378.99</v>
       </c>
-      <c r="H126" s="23">
+      <c r="H126" s="19">
         <v>4</v>
       </c>
-      <c r="I126" s="31"/>
-      <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D127" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E127" s="23" t="s">
+      <c r="E127" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F127" s="23" t="s">
+      <c r="F127" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G127" s="20">
+        <v>158</v>
+      </c>
+      <c r="H127" s="19">
+        <v>4</v>
+      </c>
+      <c r="I127" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="G127" s="24">
-        <v>158</v>
-      </c>
-      <c r="H127" s="23">
+      <c r="J127" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K127" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G128" s="20">
+        <v>120</v>
+      </c>
+      <c r="H128" s="19">
         <v>4</v>
       </c>
-      <c r="I127" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="J127" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="K127" s="32" t="s">
+      <c r="I128" s="25"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F129" s="28" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
+      <c r="G129" s="20">
+        <v>129</v>
+      </c>
+      <c r="H129" s="19">
+        <v>4</v>
+      </c>
+      <c r="I129" s="25"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="27"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="B130" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C130" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G130" s="20">
+        <v>125</v>
+      </c>
+      <c r="H130" s="19">
+        <v>4</v>
+      </c>
+      <c r="I130" s="25"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D128" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E128" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="G128" s="24">
-        <v>120</v>
-      </c>
-      <c r="H128" s="23">
+      <c r="D131" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G131" s="20">
+        <v>180</v>
+      </c>
+      <c r="H131" s="19">
         <v>4</v>
       </c>
-      <c r="I128" s="31"/>
-      <c r="J128" s="33"/>
-      <c r="K128" s="33"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
+      <c r="I131" s="25"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G132" s="20">
+        <v>800</v>
+      </c>
+      <c r="H132" s="19">
+        <v>4</v>
+      </c>
+      <c r="I132" s="25"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C129" s="23" t="s">
+      <c r="B133" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="D133" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G133" s="20">
+        <v>180</v>
+      </c>
+      <c r="H133" s="19">
+        <v>4</v>
+      </c>
+      <c r="I133" s="25"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G134" s="16">
+        <v>290</v>
+      </c>
+      <c r="H134" s="10">
+        <v>4</v>
+      </c>
+      <c r="I134" s="23"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G135" s="20">
+        <v>180</v>
+      </c>
+      <c r="H135" s="19">
+        <v>4</v>
+      </c>
+      <c r="I135" s="25"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G136" s="20">
+        <v>290</v>
+      </c>
+      <c r="H136" s="19">
+        <v>4</v>
+      </c>
+      <c r="I136" s="25"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G137" s="20">
+        <v>390</v>
+      </c>
+      <c r="H137" s="19">
+        <v>4</v>
+      </c>
+      <c r="I137" s="25"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G138" s="20">
+        <v>799</v>
+      </c>
+      <c r="H138" s="19">
+        <v>4</v>
+      </c>
+      <c r="I138" s="25"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F139" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G139" s="20">
+        <v>314</v>
+      </c>
+      <c r="H139" s="19">
+        <v>4</v>
+      </c>
+      <c r="I139" s="25"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="27"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F140" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G140" s="38">
+        <v>1000</v>
+      </c>
+      <c r="H140" s="37">
+        <v>4</v>
+      </c>
+      <c r="I140" s="39"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="40"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F141" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G141" s="38">
+        <v>1159</v>
+      </c>
+      <c r="H141" s="37">
+        <v>4</v>
+      </c>
+      <c r="I141" s="39"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="40"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E129" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F129" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="G129" s="24">
-        <v>129</v>
-      </c>
-      <c r="H129" s="23">
+      <c r="E142" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F142" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G142" s="33">
+        <v>1280</v>
+      </c>
+      <c r="H142" s="32">
         <v>4</v>
       </c>
-      <c r="I129" s="31"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="33"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
+      <c r="I142" s="34"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B130" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="E130" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F130" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="G130" s="24">
-        <v>125</v>
-      </c>
-      <c r="H130" s="23">
+      <c r="B143" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D143" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F143" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G143" s="38">
+        <v>1199</v>
+      </c>
+      <c r="H143" s="37">
         <v>4</v>
       </c>
-      <c r="I130" s="31"/>
-      <c r="J130" s="33"/>
-      <c r="K130" s="33"/>
+      <c r="I143" s="39"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/productos_sony_lentes_maestra.xlsx
+++ b/productos_sony_lentes_maestra.xlsx
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="63" r:id="rId4"/>
+    <pivotCache cacheId="91" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="270">
   <si>
     <t>Producto</t>
   </si>
@@ -815,6 +815,45 @@
   </si>
   <si>
     <t>Zeiss Batis 85mm F/1,8 FE</t>
+  </si>
+  <si>
+    <t>Sigma 45mm F/2,8 FE</t>
+  </si>
+  <si>
+    <t>Sigma 65mm f/2 DG DN Contemporary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma 60mm F/2,8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma 19mm F/2,8 </t>
+  </si>
+  <si>
+    <t>Fotos de Calle, Paisajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma 30mm F/2,8 </t>
+  </si>
+  <si>
+    <t>Fotos de Calle</t>
+  </si>
+  <si>
+    <t>SIGMA 90mm F/2,8 DG DN Contemporary</t>
+  </si>
+  <si>
+    <t>Viltrox AF 13mm f/1.4 E, para Sony E</t>
+  </si>
+  <si>
+    <t>Yongnuo YN56mm F1.4S DA DSM para Sony E</t>
+  </si>
+  <si>
+    <t>Yongnuo YN33mm F1.4S DA DSM para Sony E</t>
+  </si>
+  <si>
+    <t>FE 16-35mm F2.8 | GMASTER</t>
+  </si>
+  <si>
+    <t>FE 70-200 mm F4 Macro G OSS II</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1135,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1154,12 +1193,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,6 +1226,15 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1200,16 +1242,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1675,6 +1707,16 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1994,7 +2036,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ortega Mazzini, David" refreshedDate="45653.492214004633" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="142">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ortega Mazzini, David" refreshedDate="45656.618045370371" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="151">
   <cacheSource type="worksheet">
     <worksheetSource name="Datos"/>
   </cacheSource>
@@ -2036,12 +2078,12 @@
         <s v="Teleobjetivo y SuperTeleobjetivo"/>
         <s v="Gran Angular - Angular"/>
         <s v="Angular - Teleobjetivo"/>
-        <m/>
         <s v="Angular Teleobjetivo"/>
         <s v="Telecorto -  Teleobjetivo"/>
         <s v="Teleobjetivo - Super Tele"/>
         <s v="Angular Tele corto"/>
         <s v="Ultra Gran Angular"/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Uso" numFmtId="0">
@@ -2054,7 +2096,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Nombre" numFmtId="0">
-      <sharedItems count="147">
+      <sharedItems count="158">
         <s v="FE 85 mm F1.4 GM II"/>
         <s v="Lente E PZ 16-50 mm F3.5-5.6 OSS II"/>
         <s v="FE 16-25 mm F2.8 G"/>
@@ -2197,11 +2239,22 @@
         <s v="Zeiss Batis 18mm F/2,8 FE"/>
         <s v="Zeiss Batis 135mm F/2,8 FE"/>
         <s v="Zeiss Batis 85mm F/1,8 FE"/>
+        <s v="Sigma 45mm F/2,8 FE"/>
+        <s v="Sigma 65mm f/2 DG DN Contemporary"/>
+        <s v="Sigma 60mm F/2,8 "/>
+        <s v="Sigma 19mm F/2,8 "/>
+        <s v="Sigma 30mm F/2,8 "/>
+        <s v="SIGMA 90mm F/2,8 DG DN Contemporary"/>
+        <s v="Viltrox AF 13mm f/1.4 E, para Sony E"/>
+        <s v="Yongnuo YN33mm F1.4S DA DSM para Sony E"/>
+        <s v="Yongnuo YN56mm F1.4S DA DSM para Sony E"/>
         <s v="Viltrox 75mm f/1.2 AF, APS-C para Sony E" u="1"/>
         <s v="Viltrox AF 75mm f/1.2, APS-C para Sony E" u="1"/>
         <s v="Viltrox AF 28mm f/1,8 FE, Full Frame, para Sony" u="1"/>
         <s v="Viltrox AF 28mm f/1.8 FE, Full Frame, para Sony" u="1"/>
+        <s v="Tamron AF 11-20mm f/2.8 Di III VXD para Sony E" u="1"/>
         <s v="Samyanf AF 24mm F/2,8 FE" u="1"/>
+        <s v="Sigma 24mm f/1.4 DG DN Art" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Precio" numFmtId="44">
@@ -2229,7 +2282,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="142">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="151">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3312,7 +3365,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <x v="14"/>
+    <x v="5"/>
     <m/>
     <x v="0"/>
     <x v="83"/>
@@ -3507,7 +3560,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="14"/>
     <s v="Viajes, Bodas, Retratos, Foto de Producto"/>
     <x v="1"/>
     <x v="98"/>
@@ -3520,7 +3573,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="14"/>
     <s v="Viajes, Bodas, Retratos, Foto de Producto"/>
     <x v="1"/>
     <x v="99"/>
@@ -3585,7 +3638,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="14"/>
     <s v="Viajes, Bodas, Retratos, Foto de Producto"/>
     <x v="0"/>
     <x v="104"/>
@@ -3637,7 +3690,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="16"/>
+    <x v="15"/>
     <s v="Retratos, Bodas, Deportes, Vida Silvestre"/>
     <x v="0"/>
     <x v="108"/>
@@ -3741,7 +3794,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="16"/>
     <s v="Vida Salvaje"/>
     <x v="0"/>
     <x v="116"/>
@@ -3754,7 +3807,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="16"/>
     <s v="Vida Salvaje"/>
     <x v="0"/>
     <x v="117"/>
@@ -3767,7 +3820,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="18"/>
+    <x v="17"/>
     <s v="Vlog"/>
     <x v="0"/>
     <x v="118"/>
@@ -3923,7 +3976,7 @@
   <r>
     <x v="1"/>
     <x v="7"/>
-    <x v="16"/>
+    <x v="15"/>
     <s v="Retratos, Bodas, Foto de Producto, Viajes"/>
     <x v="0"/>
     <x v="130"/>
@@ -4001,7 +4054,7 @@
   <r>
     <x v="0"/>
     <x v="8"/>
-    <x v="19"/>
+    <x v="18"/>
     <s v="Paisajes, Arquitectura, Bienes Raices"/>
     <x v="0"/>
     <x v="136"/>
@@ -4071,6 +4124,123 @@
     <x v="0"/>
     <x v="141"/>
     <n v="1199"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Vlog, Paisajes, Videos Youtube"/>
+    <x v="0"/>
+    <x v="142"/>
+    <n v="445"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Retratos, Foto de Producto"/>
+    <x v="0"/>
+    <x v="143"/>
+    <n v="699"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Retratos, Foto de Producto"/>
+    <x v="1"/>
+    <x v="144"/>
+    <n v="180"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="Fotos de Calle, Paisajes"/>
+    <x v="1"/>
+    <x v="145"/>
+    <n v="180"/>
+    <n v="3.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="Fotos de Calle"/>
+    <x v="1"/>
+    <x v="146"/>
+    <n v="180"/>
+    <n v="3.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Retratos"/>
+    <x v="0"/>
+    <x v="147"/>
+    <n v="699"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Vlog, Paisajes, Videos Youtube"/>
+    <x v="1"/>
+    <x v="148"/>
+    <n v="413"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Foto de Calle, Retratos"/>
+    <x v="1"/>
+    <x v="149"/>
+    <n v="320"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Foto de Calle, Retratos"/>
+    <x v="1"/>
+    <x v="150"/>
+    <n v="345"/>
     <n v="4"/>
     <m/>
     <m/>
@@ -4080,8 +4250,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
+  <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0">
       <items count="4">
@@ -4096,9 +4266,9 @@
         <item h="1" x="8"/>
         <item h="1" x="7"/>
         <item h="1" x="2"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item h="1" x="1"/>
-        <item x="5"/>
+        <item h="1" x="5"/>
         <item h="1" x="6"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
@@ -4109,9 +4279,9 @@
       <items count="21">
         <item x="8"/>
         <item x="13"/>
-        <item x="18"/>
+        <item x="17"/>
         <item x="3"/>
-        <item x="15"/>
+        <item x="14"/>
         <item x="10"/>
         <item x="2"/>
         <item x="12"/>
@@ -4119,27 +4289,27 @@
         <item x="9"/>
         <item x="4"/>
         <item x="0"/>
+        <item x="15"/>
+        <item x="5"/>
         <item x="16"/>
-        <item x="5"/>
-        <item x="17"/>
         <item x="11"/>
         <item x="7"/>
-        <item x="19"/>
+        <item x="18"/>
         <item x="6"/>
-        <item x="14"/>
+        <item m="1" x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="148">
+      <items count="159">
         <item x="60"/>
         <item x="20"/>
         <item x="19"/>
@@ -4198,7 +4368,7 @@
         <item x="5"/>
         <item x="49"/>
         <item x="61"/>
-        <item m="1" x="146"/>
+        <item m="1" x="156"/>
         <item x="133"/>
         <item x="132"/>
         <item x="129"/>
@@ -4215,14 +4385,21 @@
         <item x="64"/>
         <item x="82"/>
         <item x="93"/>
+        <item x="145"/>
         <item x="68"/>
+        <item m="1" x="157"/>
         <item x="92"/>
         <item x="94"/>
+        <item x="146"/>
         <item x="81"/>
         <item x="105"/>
         <item x="80"/>
+        <item x="142"/>
         <item x="122"/>
         <item x="91"/>
+        <item x="144"/>
+        <item x="143"/>
+        <item x="147"/>
         <item x="40"/>
         <item x="36"/>
         <item x="109"/>
@@ -4240,6 +4417,7 @@
         <item x="101"/>
         <item x="62"/>
         <item x="102"/>
+        <item m="1" x="155"/>
         <item x="116"/>
         <item x="99"/>
         <item x="118"/>
@@ -4259,14 +4437,15 @@
         <item x="58"/>
         <item x="41"/>
         <item x="43"/>
-        <item m="1" x="142"/>
+        <item m="1" x="151"/>
+        <item x="148"/>
         <item x="121"/>
         <item x="72"/>
         <item x="74"/>
         <item x="75"/>
         <item x="71"/>
-        <item m="1" x="144"/>
-        <item m="1" x="145"/>
+        <item m="1" x="153"/>
+        <item m="1" x="154"/>
         <item x="124"/>
         <item x="66"/>
         <item x="77"/>
@@ -4275,13 +4454,15 @@
         <item x="76"/>
         <item x="78"/>
         <item x="119"/>
-        <item m="1" x="143"/>
+        <item m="1" x="152"/>
         <item x="120"/>
         <item x="69"/>
         <item x="113"/>
+        <item x="149"/>
         <item x="95"/>
         <item x="97"/>
         <item x="89"/>
+        <item x="150"/>
         <item x="87"/>
         <item x="140"/>
         <item x="139"/>
@@ -4299,30 +4480,138 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="45">
     <i>
-      <x v="104"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="105"/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="106"/>
+      <x v="16"/>
     </i>
     <i>
-      <x v="107"/>
+      <x v="17"/>
     </i>
     <i>
-      <x v="108"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="109"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="110"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="111"/>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
     </i>
     <i t="grand">
       <x/>
@@ -4354,9 +4643,9 @@
   <data>
     <tabular pivotCacheId="952029092">
       <items count="3">
+        <i x="2" s="1"/>
         <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4372,25 +4661,25 @@
     <tabular pivotCacheId="952029092">
       <items count="20">
         <i x="8" s="1"/>
+        <i x="3" s="1"/>
+        <i x="10" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
         <i x="9" s="1"/>
+        <i x="4" s="1"/>
         <i x="0" s="1"/>
-        <i x="14" s="1"/>
+        <i x="5" s="1"/>
+        <i x="7" s="1"/>
         <i x="13" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
         <i x="18" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="17" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
         <i x="19" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4408,9 +4697,9 @@
         <i x="8"/>
         <i x="7"/>
         <i x="2"/>
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="1"/>
-        <i x="5" s="1"/>
+        <i x="5"/>
         <i x="6"/>
         <i x="3"/>
         <i x="4"/>
@@ -4429,7 +4718,7 @@
   <data>
     <tabular pivotCacheId="952029092">
       <items count="2">
-        <i x="1" s="1"/>
+        <i x="1"/>
         <i x="0" s="1"/>
       </items>
     </tabular>
@@ -4441,26 +4730,26 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Tipo" cache="SegmentaciónDeDatos_Tipo" caption="Tipo" style="SlicerStyleLight2" rowHeight="241300"/>
   <slicer name="Categoria" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" style="SlicerStyleDark4" rowHeight="241300"/>
-  <slicer name="Marca" cache="SegmentaciónDeDatos_Marca" caption="Marca" rowHeight="241300"/>
+  <slicer name="Marca" cache="SegmentaciónDeDatos_Marca" caption="Marca" startItem="2" rowHeight="241300"/>
   <slicer name="Sensor" cache="SegmentaciónDeDatos_Sensor" caption="Sensor" style="SlicerStyleDark6" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A1:K143" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:K143"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A1:K152" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:K152"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Tipo" dataDxfId="11"/>
-    <tableColumn id="9" name="Marca" dataDxfId="10"/>
-    <tableColumn id="2" name="Categoria" dataDxfId="9"/>
-    <tableColumn id="3" name="Uso" dataDxfId="8"/>
-    <tableColumn id="4" name="Sensor" dataDxfId="7"/>
-    <tableColumn id="5" name="Nombre" dataDxfId="6"/>
-    <tableColumn id="6" name="Precio" dataDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="Calificacion" dataDxfId="4"/>
-    <tableColumn id="8" name="Tamaño de Filtro" dataDxfId="3"/>
-    <tableColumn id="10" name="Distancia Minima de Enfoque" dataDxfId="2"/>
-    <tableColumn id="11" name="Peso" dataDxfId="1"/>
+    <tableColumn id="1" name="Tipo" dataDxfId="10"/>
+    <tableColumn id="9" name="Marca" dataDxfId="9"/>
+    <tableColumn id="2" name="Categoria" dataDxfId="8"/>
+    <tableColumn id="3" name="Uso" dataDxfId="7"/>
+    <tableColumn id="4" name="Sensor" dataDxfId="6"/>
+    <tableColumn id="5" name="Nombre" dataDxfId="5"/>
+    <tableColumn id="6" name="Precio" dataDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Calificacion" dataDxfId="3"/>
+    <tableColumn id="8" name="Tamaño de Filtro" dataDxfId="2"/>
+    <tableColumn id="10" name="Distancia Minima de Enfoque" dataDxfId="1"/>
+    <tableColumn id="11" name="Peso" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4768,14 +5057,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5916,7 +6205,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G64">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Mismo Precio"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5927,16 +6216,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B12"/>
+  <dimension ref="A3:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5949,74 +6238,362 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="B4" s="22">
-        <v>599</v>
+        <v>2748.99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="B5" s="22">
-        <v>369</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B6" s="22">
-        <v>399</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="B7" s="22">
-        <v>480</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="B8" s="22">
-        <v>419</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="B9" s="22">
-        <v>448.99</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="B10" s="22">
-        <v>299</v>
+        <v>1368.99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="B11" s="22">
-        <v>279</v>
+        <v>2058.9899999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="22">
+        <v>908.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="22">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1138.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="22">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="22">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="22">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="22">
+        <v>1828.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="22">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="22">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="22">
+        <v>448.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="22">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="22">
+        <v>6888.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="22">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="22">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="22">
+        <v>1368.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="22">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="22">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="22">
+        <v>218.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="22">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="22">
+        <v>3208.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="22">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="22">
+        <v>2058.9899999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="22">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="22">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="22">
+        <v>1138.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="22">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="22">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="22">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="22">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="22">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="22">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="22">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="22">
+        <v>1138.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="22">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="22">
-        <v>3292.99</v>
+      <c r="B48" s="22">
+        <v>69265.86</v>
       </c>
     </row>
   </sheetData>
@@ -6035,10 +6612,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6068,10 +6645,10 @@
       <c r="E1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="14" t="s">
@@ -6100,13 +6677,13 @@
       <c r="D2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="45">
         <v>2058.9899999999998</v>
       </c>
       <c r="H2" s="9">
@@ -6129,13 +6706,13 @@
       <c r="D3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="47">
         <v>339</v>
       </c>
       <c r="H3" s="11">
@@ -6158,13 +6735,13 @@
       <c r="D4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="45">
         <v>1368.99</v>
       </c>
       <c r="H4" s="9">
@@ -6187,13 +6764,13 @@
       <c r="D5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="47">
         <v>1259</v>
       </c>
       <c r="H5" s="11">
@@ -6216,13 +6793,13 @@
       <c r="D6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="45">
         <v>6888.99</v>
       </c>
       <c r="H6" s="9">
@@ -6245,13 +6822,13 @@
       <c r="D7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="49">
+      <c r="F7" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="47">
         <v>2639</v>
       </c>
       <c r="H7" s="11">
@@ -6274,13 +6851,13 @@
       <c r="D8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="47">
+      <c r="F8" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="45">
         <v>1949</v>
       </c>
       <c r="H8" s="9">
@@ -6303,13 +6880,13 @@
       <c r="D9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="47">
         <v>1368.99</v>
       </c>
       <c r="H9" s="11">
@@ -6332,13 +6909,13 @@
       <c r="D10" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="45">
         <v>1138.99</v>
       </c>
       <c r="H10" s="9">
@@ -6361,13 +6938,13 @@
       <c r="D11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="47">
         <v>739</v>
       </c>
       <c r="H11" s="11">
@@ -6390,13 +6967,13 @@
       <c r="D12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="45">
         <v>2639</v>
       </c>
       <c r="H12" s="9">
@@ -6419,13 +6996,13 @@
       <c r="D13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="47">
         <v>3208.99</v>
       </c>
       <c r="H13" s="11">
@@ -6448,13 +7025,13 @@
       <c r="D14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="45">
         <v>1719</v>
       </c>
       <c r="H14" s="9">
@@ -6477,13 +7054,13 @@
       <c r="D15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="47">
         <v>2179</v>
       </c>
       <c r="H15" s="11">
@@ -6506,13 +7083,13 @@
       <c r="D16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="45">
         <v>1489</v>
       </c>
       <c r="H16" s="9">
@@ -6535,13 +7112,13 @@
       <c r="D17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="47">
         <v>2748.99</v>
       </c>
       <c r="H17" s="11">
@@ -6564,13 +7141,13 @@
       <c r="D18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="45">
         <v>2058.9899999999998</v>
       </c>
       <c r="H18" s="9">
@@ -6593,13 +7170,13 @@
       <c r="D19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="47">
         <v>1828.99</v>
       </c>
       <c r="H19" s="11">
@@ -6622,13 +7199,13 @@
       <c r="D20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="45">
         <v>1489</v>
       </c>
       <c r="H20" s="9">
@@ -6651,13 +7228,13 @@
       <c r="D21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="47">
         <v>739</v>
       </c>
       <c r="H21" s="11">
@@ -6680,13 +7257,13 @@
       <c r="D22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="45">
         <v>569</v>
       </c>
       <c r="H22" s="9">
@@ -6709,13 +7286,13 @@
       <c r="D23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="47">
         <v>1419</v>
       </c>
       <c r="H23" s="11">
@@ -6738,13 +7315,13 @@
       <c r="D24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="45">
         <v>2179</v>
       </c>
       <c r="H24" s="9">
@@ -6767,13 +7344,13 @@
       <c r="D25" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="47">
         <v>908.99</v>
       </c>
       <c r="H25" s="11">
@@ -6796,13 +7373,13 @@
       <c r="D26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="45">
         <v>2179</v>
       </c>
       <c r="H26" s="9">
@@ -6825,13 +7402,13 @@
       <c r="D27" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="47">
         <v>1138.99</v>
       </c>
       <c r="H27" s="11">
@@ -6854,13 +7431,13 @@
       <c r="D28" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="45">
         <v>629</v>
       </c>
       <c r="H28" s="9">
@@ -6883,13 +7460,13 @@
       <c r="D29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="47">
         <v>1089</v>
       </c>
       <c r="H29" s="11">
@@ -6912,13 +7489,13 @@
       <c r="D30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="45">
         <v>629</v>
       </c>
       <c r="H30" s="9">
@@ -6941,13 +7518,13 @@
       <c r="D31" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="47">
         <v>629</v>
       </c>
       <c r="H31" s="11">
@@ -6970,13 +7547,13 @@
       <c r="D32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="45">
         <v>629</v>
       </c>
       <c r="H32" s="9">
@@ -6999,13 +7576,13 @@
       <c r="D33" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="47">
         <v>629</v>
       </c>
       <c r="H33" s="11">
@@ -7028,13 +7605,13 @@
       <c r="D34" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="45">
         <v>629</v>
       </c>
       <c r="H34" s="9">
@@ -7057,13 +7634,13 @@
       <c r="D35" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G35" s="47">
         <v>1029</v>
       </c>
       <c r="H35" s="11">
@@ -7086,13 +7663,13 @@
       <c r="D36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="45">
         <v>739</v>
       </c>
       <c r="H36" s="9">
@@ -7115,13 +7692,13 @@
       <c r="D37" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="49">
+      <c r="G37" s="47">
         <v>1259</v>
       </c>
       <c r="H37" s="11">
@@ -7144,13 +7721,13 @@
       <c r="D38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="45">
         <v>1029</v>
       </c>
       <c r="H38" s="9">
@@ -7175,13 +7752,13 @@
       <c r="D39" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="49">
+      <c r="G39" s="47">
         <v>629</v>
       </c>
       <c r="H39" s="11">
@@ -7204,13 +7781,13 @@
       <c r="D40" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="45">
         <v>2029</v>
       </c>
       <c r="H40" s="9">
@@ -7233,13 +7810,13 @@
       <c r="D41" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41" s="47">
         <v>739</v>
       </c>
       <c r="H41" s="11">
@@ -7262,13 +7839,13 @@
       <c r="D42" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="45">
         <v>908.99</v>
       </c>
       <c r="H42" s="9">
@@ -7291,13 +7868,13 @@
       <c r="D43" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="47">
         <v>1138.99</v>
       </c>
       <c r="H43" s="11">
@@ -7320,13 +7897,13 @@
       <c r="D44" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G44" s="45">
         <v>279</v>
       </c>
       <c r="H44" s="9">
@@ -7349,13 +7926,13 @@
       <c r="D45" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="49">
+      <c r="G45" s="47">
         <v>799</v>
       </c>
       <c r="H45" s="11">
@@ -7378,13 +7955,13 @@
       <c r="D46" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="47">
+      <c r="G46" s="45">
         <v>419</v>
       </c>
       <c r="H46" s="9">
@@ -7407,13 +7984,13 @@
       <c r="D47" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="49">
+      <c r="G47" s="47">
         <v>509</v>
       </c>
       <c r="H47" s="11">
@@ -7436,13 +8013,13 @@
       <c r="D48" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="47">
+      <c r="G48" s="45">
         <v>339</v>
       </c>
       <c r="H48" s="9">
@@ -7465,13 +8042,13 @@
       <c r="D49" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="49">
+      <c r="G49" s="47">
         <v>339</v>
       </c>
       <c r="H49" s="11">
@@ -7494,13 +8071,13 @@
       <c r="D50" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="47">
+      <c r="G50" s="45">
         <v>218.99</v>
       </c>
       <c r="H50" s="9">
@@ -7525,13 +8102,13 @@
       <c r="D51" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="49">
+      <c r="G51" s="47">
         <v>279</v>
       </c>
       <c r="H51" s="11">
@@ -7554,13 +8131,13 @@
       <c r="D52" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="47">
+      <c r="G52" s="45">
         <v>479</v>
       </c>
       <c r="H52" s="9">
@@ -7585,13 +8162,13 @@
       <c r="D53" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="49">
+      <c r="G53" s="47">
         <v>448.99</v>
       </c>
       <c r="H53" s="11">
@@ -7614,13 +8191,13 @@
       <c r="D54" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="47">
+      <c r="G54" s="45">
         <v>339</v>
       </c>
       <c r="H54" s="9">
@@ -7645,13 +8222,13 @@
       <c r="D55" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G55" s="49">
+      <c r="G55" s="47">
         <v>1489</v>
       </c>
       <c r="H55" s="11">
@@ -7674,13 +8251,13 @@
       <c r="D56" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G56" s="47">
+      <c r="G56" s="45">
         <v>3559</v>
       </c>
       <c r="H56" s="9">
@@ -7703,13 +8280,13 @@
       <c r="D57" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="49">
+      <c r="G57" s="47">
         <v>2409</v>
       </c>
       <c r="H57" s="11">
@@ -7732,13 +8309,13 @@
       <c r="D58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="47">
+      <c r="G58" s="45">
         <v>569</v>
       </c>
       <c r="H58" s="9">
@@ -7761,13 +8338,13 @@
       <c r="D59" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="E59" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G59" s="47">
         <v>1489</v>
       </c>
       <c r="H59" s="11">
@@ -7790,13 +8367,13 @@
       <c r="D60" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="47">
+      <c r="G60" s="45">
         <v>799</v>
       </c>
       <c r="H60" s="9">
@@ -7821,13 +8398,13 @@
       <c r="D61" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="48" t="s">
+      <c r="F61" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="49">
+      <c r="G61" s="47">
         <v>1719</v>
       </c>
       <c r="H61" s="11">
@@ -7850,13 +8427,13 @@
       <c r="D62" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="E62" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="47">
+      <c r="G62" s="45">
         <v>999.01</v>
       </c>
       <c r="H62" s="9">
@@ -7879,13 +8456,13 @@
       <c r="D63" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="49">
+      <c r="G63" s="47">
         <v>629</v>
       </c>
       <c r="H63" s="11">
@@ -7911,10 +8488,10 @@
       <c r="E64" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="45">
+      <c r="G64" s="43">
         <v>1099</v>
       </c>
       <c r="H64" s="10">
@@ -10105,13 +10682,13 @@
       <c r="K139" s="27"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="36" t="s">
+      <c r="A140" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B140" s="36" t="s">
+      <c r="B140" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="C140" s="32" t="s">
+      <c r="C140" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D140" s="19" t="s">
@@ -10120,27 +10697,27 @@
       <c r="E140" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F140" s="37" t="s">
+      <c r="F140" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="G140" s="38">
+      <c r="G140" s="36">
         <v>1000</v>
       </c>
-      <c r="H140" s="37">
+      <c r="H140" s="35">
         <v>4</v>
       </c>
-      <c r="I140" s="39"/>
-      <c r="J140" s="40"/>
-      <c r="K140" s="40"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="38"/>
+      <c r="K140" s="38"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="36" t="s">
+      <c r="A141" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="36" t="s">
+      <c r="B141" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="C141" s="37" t="s">
+      <c r="C141" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D141" s="19" t="s">
@@ -10149,76 +10726,337 @@
       <c r="E141" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F141" s="37" t="s">
+      <c r="F141" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="G141" s="38">
+      <c r="G141" s="36">
         <v>1159</v>
       </c>
-      <c r="H141" s="37">
+      <c r="H141" s="35">
         <v>4</v>
       </c>
-      <c r="I141" s="39"/>
-      <c r="J141" s="40"/>
-      <c r="K141" s="40"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="38"/>
+      <c r="K141" s="38"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="29" t="s">
         <v>251</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D142" s="32" t="s">
+      <c r="D142" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E142" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F142" s="37" t="s">
+      <c r="F142" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="G142" s="33">
+      <c r="G142" s="31">
         <v>1280</v>
       </c>
-      <c r="H142" s="32">
+      <c r="H142" s="30">
         <v>4</v>
       </c>
-      <c r="I142" s="34"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="35"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="33"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="36" t="s">
+      <c r="A143" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B143" s="36" t="s">
+      <c r="B143" s="34" t="s">
         <v>251</v>
       </c>
       <c r="C143" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D143" s="37" t="s">
+      <c r="D143" s="35" t="s">
         <v>73</v>
       </c>
       <c r="E143" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F143" s="37" t="s">
+      <c r="F143" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="G143" s="38">
+      <c r="G143" s="36">
         <v>1199</v>
       </c>
-      <c r="H143" s="37">
+      <c r="H143" s="35">
         <v>4</v>
       </c>
-      <c r="I143" s="39"/>
-      <c r="J143" s="40"/>
-      <c r="K143" s="40"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="38"/>
+      <c r="K143" s="38"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F144" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="G144" s="20">
+        <v>445</v>
+      </c>
+      <c r="H144" s="19">
+        <v>4</v>
+      </c>
+      <c r="I144" s="25"/>
+      <c r="J144" s="27"/>
+      <c r="K144" s="27"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G145" s="20">
+        <v>699</v>
+      </c>
+      <c r="H145" s="19">
+        <v>4</v>
+      </c>
+      <c r="I145" s="25"/>
+      <c r="J145" s="27"/>
+      <c r="K145" s="27"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G146" s="20">
+        <v>180</v>
+      </c>
+      <c r="H146" s="19">
+        <v>5</v>
+      </c>
+      <c r="I146" s="25"/>
+      <c r="J146" s="27"/>
+      <c r="K146" s="27"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F147" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G147" s="20">
+        <v>180</v>
+      </c>
+      <c r="H147" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="I147" s="25"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="27"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F148" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G148" s="20">
+        <v>180</v>
+      </c>
+      <c r="H148" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="I148" s="25"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="27"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G149" s="20">
+        <v>699</v>
+      </c>
+      <c r="H149" s="19">
+        <v>5</v>
+      </c>
+      <c r="I149" s="25"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="27"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G150" s="20">
+        <v>413</v>
+      </c>
+      <c r="H150" s="19">
+        <v>4</v>
+      </c>
+      <c r="I150" s="25"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="27"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G151" s="17">
+        <v>320</v>
+      </c>
+      <c r="H151" s="12">
+        <v>4</v>
+      </c>
+      <c r="I151" s="25"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="27"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G152" s="20">
+        <v>345</v>
+      </c>
+      <c r="H152" s="19">
+        <v>4</v>
+      </c>
+      <c r="I152" s="25"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10226,8 +11064,9 @@
     <hyperlink ref="F130" r:id="rId2" display="https://www.ttartisan.com/?AF-Lens/AF-35-II.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos_sony_lentes_maestra.xlsx
+++ b/productos_sony_lentes_maestra.xlsx
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="91" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="275">
   <si>
     <t>Producto</t>
   </si>
@@ -854,6 +854,21 @@
   </si>
   <si>
     <t>FE 70-200 mm F4 Macro G OSS II</t>
+  </si>
+  <si>
+    <t>7artisan</t>
+  </si>
+  <si>
+    <t>Foto de Paisaje</t>
+  </si>
+  <si>
+    <t>7artisan 18mm F5,6 Pancake Sony E</t>
+  </si>
+  <si>
+    <t>49mm</t>
+  </si>
+  <si>
+    <t>30cm</t>
   </si>
 </sst>
 </file>
@@ -1226,14 +1241,14 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4250,7 +4265,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
   <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0">
@@ -4736,8 +4751,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A1:K152" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:K152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A1:K153" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:K153"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Tipo" dataDxfId="10"/>
     <tableColumn id="9" name="Marca" dataDxfId="9"/>
@@ -5057,14 +5072,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6612,10 +6627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10813,7 +10828,7 @@
       <c r="E144" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F144" s="50" t="s">
+      <c r="F144" s="48" t="s">
         <v>257</v>
       </c>
       <c r="G144" s="20">
@@ -11057,6 +11072,39 @@
       <c r="I152" s="25"/>
       <c r="J152" s="27"/>
       <c r="K152" s="27"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E153" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F153" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G153" s="36">
+        <v>70</v>
+      </c>
+      <c r="H153" s="35">
+        <v>4</v>
+      </c>
+      <c r="I153" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J153" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="K153" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
